--- a/Code/Seminar/test.xlsx
+++ b/Code/Seminar/test.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="14430"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="14400" windowHeight="11895"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="300m" sheetId="4" r:id="rId4"/>
-    <sheet name="400m" sheetId="5" r:id="rId5"/>
-    <sheet name="500m" sheetId="6" r:id="rId6"/>
-    <sheet name="600m" sheetId="7" r:id="rId7"/>
+    <sheet name="300m" sheetId="4" r:id="rId1"/>
+    <sheet name="400m" sheetId="5" r:id="rId2"/>
+    <sheet name="500m" sheetId="6" r:id="rId3"/>
+    <sheet name="600m" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,66 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
-    <t>t1</t>
+    <t>t [a]</t>
   </si>
   <si>
-    <t>Q_total1</t>
+    <t>Q_total [W]</t>
   </si>
   <si>
-    <t>Q_above1</t>
+    <t>Q_outside [W]</t>
   </si>
   <si>
-    <t>Q_below1</t>
+    <t>T_field [degC]</t>
   </si>
   <si>
-    <t>T_field1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>Q_total2</t>
-  </si>
-  <si>
-    <t>Q_above2</t>
-  </si>
-  <si>
-    <t>Q_below2</t>
-  </si>
-  <si>
-    <t>T_field2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>Q_total3</t>
-  </si>
-  <si>
-    <t>Q_above3</t>
-  </si>
-  <si>
-    <t>Q_below3</t>
-  </si>
-  <si>
-    <t>T_field3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Q_total4</t>
-  </si>
-  <si>
-    <t>Q_above4</t>
-  </si>
-  <si>
-    <t>Q_below4</t>
-  </si>
-  <si>
-    <t>T_field4</t>
+    <t>T_outlet [degC]</t>
   </si>
 </sst>
 </file>
@@ -407,45 +359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,13 +397,13 @@
         <v>188969.0642500142</v>
       </c>
       <c r="C2">
-        <v>-3655.0241889517038</v>
+        <v>2.482083800714463E-7</v>
       </c>
       <c r="D2">
-        <v>3655.0241890137559</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E2">
-        <v>23.302957964180166</v>
+        <v>26.09207080040909</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,13 +414,13 @@
         <v>354697.58932907169</v>
       </c>
       <c r="C3">
-        <v>-3655.0241889517038</v>
+        <v>2.482083800714463E-7</v>
       </c>
       <c r="D3">
-        <v>3655.0241890137559</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E3">
-        <v>23.302957964180166</v>
+        <v>23.699896695607777</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,13 +431,13 @@
         <v>434756.38808517641</v>
       </c>
       <c r="C4">
-        <v>-3655.0241890157104</v>
+        <v>-7.8289303928613663E-9</v>
       </c>
       <c r="D4">
-        <v>3655.0241890137531</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E4">
-        <v>23.302957964180166</v>
+        <v>22.578278041697558</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +448,13 @@
         <v>511264.01859541656</v>
       </c>
       <c r="C5">
-        <v>-3655.0241890168727</v>
+        <v>-1.2480086297728121E-8</v>
       </c>
       <c r="D5">
-        <v>3655.0241890137527</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E5">
-        <v>23.302957964180166</v>
+        <v>22.293633936602419</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +465,13 @@
         <v>614208.6079782201</v>
       </c>
       <c r="C6">
-        <v>-3655.0241890145221</v>
+        <v>-3.0777300707995892E-9</v>
       </c>
       <c r="D6">
-        <v>3655.0241890137527</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E6">
-        <v>23.302957964180166</v>
+        <v>22.299246490716882</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,13 +482,13 @@
         <v>708645.64951334416</v>
       </c>
       <c r="C7">
-        <v>-3655.0241890127199</v>
+        <v>4.1272869566455483E-9</v>
       </c>
       <c r="D7">
-        <v>3655.0241890137518</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E7">
-        <v>23.302957964180166</v>
+        <v>22.16174822515876</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,13 +499,13 @@
         <v>826677.58304922853</v>
       </c>
       <c r="C8">
-        <v>-3655.02418901289</v>
+        <v>3.4524418879300356E-9</v>
       </c>
       <c r="D8">
-        <v>3655.0241890137531</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E8">
-        <v>23.302957964180166</v>
+        <v>22.183931349591433</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,13 +516,13 @@
         <v>926996.74422906653</v>
       </c>
       <c r="C9">
-        <v>-3655.0241890138059</v>
+        <v>-2.1464074961841106E-10</v>
       </c>
       <c r="D9">
-        <v>3655.0241890137522</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E9">
-        <v>23.302957964180166</v>
+        <v>22.151855061897322</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,13 +533,13 @@
         <v>1055960.1143088648</v>
       </c>
       <c r="C10">
-        <v>-3655.0241890139469</v>
+        <v>-7.7852746471762657E-10</v>
       </c>
       <c r="D10">
-        <v>3655.0241890137522</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E10">
-        <v>23.302957964180166</v>
+        <v>22.230950367574053</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,13 +550,13 @@
         <v>1149970.645675045</v>
       </c>
       <c r="C11">
-        <v>-3655.0241890135758</v>
+        <v>7.0758687797933817E-10</v>
       </c>
       <c r="D11">
-        <v>3655.0241890137527</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E11">
-        <v>23.302957964180166</v>
+        <v>22.306876473633793</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,13 +567,13 @@
         <v>1265756.7150080008</v>
       </c>
       <c r="C12">
-        <v>-3655.0241890135339</v>
+        <v>8.7311491370201111E-10</v>
       </c>
       <c r="D12">
-        <v>3655.0241890137522</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E12">
-        <v>23.302957964180166</v>
+        <v>22.459761825940802</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,13 +584,13 @@
         <v>1339534.2715127789</v>
       </c>
       <c r="C13">
-        <v>-3655.0241890142206</v>
+        <v>-1.8735590856522322E-9</v>
       </c>
       <c r="D13">
-        <v>3655.0241890137522</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E13">
-        <v>23.302957964180166</v>
+        <v>22.605726936640963</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,13 +601,13 @@
         <v>1411861.6410961507</v>
       </c>
       <c r="C14">
-        <v>-3655.0241890140287</v>
+        <v>-1.1041265679523349E-9</v>
       </c>
       <c r="D14">
-        <v>3655.0241890137527</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E14">
-        <v>23.302957964180166</v>
+        <v>22.835723717506085</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,13 +618,13 @@
         <v>1455576.2912260129</v>
       </c>
       <c r="C15">
-        <v>-3655.0241890225652</v>
+        <v>-3.5253833630122244E-8</v>
       </c>
       <c r="D15">
-        <v>3655.0241890137518</v>
+        <v>23.302957964180166</v>
       </c>
       <c r="E15">
-        <v>23.302957964180166</v>
+        <v>22.971012785728362</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,13 +635,13 @@
         <v>1520992.8975572935</v>
       </c>
       <c r="C16">
-        <v>-3655.0241887336733</v>
+        <v>1.1203028407180682E-6</v>
       </c>
       <c r="D16">
-        <v>3655.024189013749</v>
+        <v>23.302957964180052</v>
       </c>
       <c r="E16">
-        <v>23.302957964180052</v>
+        <v>22.982102231586566</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,13 +652,13 @@
         <v>1578225.4611788001</v>
       </c>
       <c r="C17">
-        <v>-3655.0241889475619</v>
+        <v>2.6480665837880224E-7</v>
       </c>
       <c r="D17">
-        <v>3655.0241890137636</v>
+        <v>23.30295796418028</v>
       </c>
       <c r="E17">
-        <v>23.30295796418028</v>
+        <v>22.886682844345785</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,13 +669,13 @@
         <v>1658452.0937454333</v>
       </c>
       <c r="C18">
-        <v>-3655.0241917618737</v>
+        <v>-1.0992478564730845E-5</v>
       </c>
       <c r="D18">
-        <v>3655.024189013754</v>
+        <v>23.302957964180564</v>
       </c>
       <c r="E18">
-        <v>23.302957964180564</v>
+        <v>22.65530903190961</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,13 +686,13 @@
         <v>1745633.5876193796</v>
       </c>
       <c r="C19">
-        <v>-3655.0241839416531</v>
+        <v>2.028818562394008E-5</v>
       </c>
       <c r="D19">
-        <v>3655.0241890136995</v>
+        <v>23.302957964177324</v>
       </c>
       <c r="E19">
-        <v>23.302957964177324</v>
+        <v>22.246153236366069</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,13 +703,13 @@
         <v>1800487.5176072298</v>
       </c>
       <c r="C20">
-        <v>-3655.0242374075137</v>
+        <v>-1.9357430755917449E-4</v>
       </c>
       <c r="D20">
-        <v>3655.0241890139368</v>
+        <v>23.302957964199663</v>
       </c>
       <c r="E20">
-        <v>23.302957964199663</v>
+        <v>21.892927085741064</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,13 +720,13 @@
         <v>1861741.5097414244</v>
       </c>
       <c r="C21">
-        <v>-3655.0242017883684</v>
+        <v>-5.1098579206154682E-5</v>
       </c>
       <c r="D21">
-        <v>3655.0241890137236</v>
+        <v>23.302957964183008</v>
       </c>
       <c r="E21">
-        <v>23.302957964183008</v>
+        <v>21.370539388626071</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,13 +737,13 @@
         <v>1898394.2972017664</v>
       </c>
       <c r="C22">
-        <v>-3655.023978584733</v>
+        <v>8.4171408161637373E-4</v>
       </c>
       <c r="D22">
-        <v>3655.0241890132534</v>
+        <v>23.302957964075972</v>
       </c>
       <c r="E22">
-        <v>23.302957964075972</v>
+        <v>20.97564742569449</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,13 +754,13 @@
         <v>1934513.8098907564</v>
       </c>
       <c r="C23">
-        <v>-3655.0240245812402</v>
+        <v>6.5776461633504368E-4</v>
       </c>
       <c r="D23">
-        <v>3655.0241890223942</v>
+        <v>23.30295796291324</v>
       </c>
       <c r="E23">
-        <v>23.30295796291324</v>
+        <v>20.438561298715626</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,13 +771,13 @@
         <v>1954475.7003222439</v>
       </c>
       <c r="C24">
-        <v>-3655.0153059325994</v>
+        <v>3.5532005180357373E-2</v>
       </c>
       <c r="D24">
-        <v>3655.0241889338945</v>
+        <v>23.302957938039697</v>
       </c>
       <c r="E24">
-        <v>23.302957938039697</v>
+        <v>20.042708069783714</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,13 +788,13 @@
         <v>1973289.3706010063</v>
       </c>
       <c r="C25">
-        <v>-3654.8607513559373</v>
+        <v>0.65374118490035471</v>
       </c>
       <c r="D25">
-        <v>3655.0241866521624</v>
+        <v>23.302957169507806</v>
       </c>
       <c r="E25">
-        <v>23.302957169507806</v>
+        <v>19.509497752006723</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,13 +805,13 @@
         <v>1983449.5422151312</v>
       </c>
       <c r="C26">
-        <v>-3654.5418027101168</v>
+        <v>1.9295162067137426</v>
       </c>
       <c r="D26">
-        <v>3655.0241817617953</v>
+        <v>23.302954888569104</v>
       </c>
       <c r="E26">
-        <v>23.302954888569104</v>
+        <v>19.11804562637343</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,13 +822,13 @@
         <v>1992893.8986915359</v>
       </c>
       <c r="C27">
-        <v>-3653.6697985327164</v>
+        <v>5.4175035929365549</v>
       </c>
       <c r="D27">
-        <v>3655.0241744309506</v>
+        <v>23.302939886961724</v>
       </c>
       <c r="E27">
-        <v>23.302939886961724</v>
+        <v>18.591327066517351</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,13 +839,13 @@
         <v>1997971.9050122467</v>
       </c>
       <c r="C28">
-        <v>-3652.9899555835277</v>
+        <v>8.1369029919987952</v>
       </c>
       <c r="D28">
-        <v>3655.0241813315274</v>
+        <v>23.302912483385512</v>
       </c>
       <c r="E28">
-        <v>23.302912483385512</v>
+        <v>18.204605779476879</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,13 +856,13 @@
         <v>2001066.1932388055</v>
       </c>
       <c r="C29">
-        <v>-3652.7547555009351</v>
+        <v>9.0777994020736514</v>
       </c>
       <c r="D29">
-        <v>3655.0242053514535</v>
+        <v>23.302872413036312</v>
       </c>
       <c r="E29">
-        <v>23.302872413036312</v>
+        <v>17.902232483709781</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,13 +873,13 @@
         <v>2004331.3971593138</v>
       </c>
       <c r="C30">
-        <v>-3654.2042979264315</v>
+        <v>3.2798705594832427</v>
       </c>
       <c r="D30">
-        <v>3655.0242655663023</v>
+        <v>23.302748669137372</v>
       </c>
       <c r="E30">
-        <v>23.302748669137372</v>
+        <v>17.471460715797775</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,13 +890,13 @@
         <v>2006262.6323494378</v>
       </c>
       <c r="C31">
-        <v>-3657.0419611947482</v>
+        <v>-8.0706974352669931</v>
       </c>
       <c r="D31">
-        <v>3655.0242868359314</v>
+        <v>23.302589081186113</v>
       </c>
       <c r="E31">
-        <v>23.302589081186113</v>
+        <v>17.144944941820995</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,13 +907,13 @@
         <v>2008208.6960195778</v>
       </c>
       <c r="C32">
-        <v>-3664.3578757320279</v>
+        <v>-37.334817434004435</v>
       </c>
       <c r="D32">
-        <v>3655.0241713735268</v>
+        <v>23.302173338060527</v>
       </c>
       <c r="E32">
-        <v>23.302173338060527</v>
+        <v>16.69687621763569</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,13 +924,13 @@
         <v>2009302.2055449008</v>
       </c>
       <c r="C33">
-        <v>-3671.0812569433033</v>
+        <v>-64.228871017065103</v>
       </c>
       <c r="D33">
-        <v>3655.024039189037</v>
+        <v>23.301689759830481</v>
       </c>
       <c r="E33">
-        <v>23.301689759830481</v>
+        <v>16.365285020268686</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,13 +941,13 @@
         <v>2009978.6279406678</v>
       </c>
       <c r="C34">
-        <v>-3676.1176987208937</v>
+        <v>-84.374848148696401</v>
       </c>
       <c r="D34">
-        <v>3655.0239866837196</v>
+        <v>23.301157373984381</v>
       </c>
       <c r="E34">
-        <v>23.301157373984381</v>
+        <v>16.104736191502639</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,13 +958,13 @@
         <v>2010693.3724909236</v>
       </c>
       <c r="C35">
-        <v>-3678.3095742864321</v>
+        <v>-93.1417662038657</v>
       </c>
       <c r="D35">
-        <v>3655.0241327354656</v>
+        <v>23.299973664337756</v>
       </c>
       <c r="E35">
-        <v>23.299973664337756</v>
+        <v>15.728950081761752</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,13 +975,13 @@
         <v>2011117.1179360403</v>
       </c>
       <c r="C36">
-        <v>-3674.0671512778922</v>
+        <v>-76.171307280985275</v>
       </c>
       <c r="D36">
-        <v>3655.0243244576459</v>
+        <v>23.298710610209298</v>
       </c>
       <c r="E36">
-        <v>23.298710610209298</v>
+        <v>15.439453770726573</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,13 +992,13 @@
         <v>2011553.7226029178</v>
       </c>
       <c r="C37">
-        <v>-3651.9499170128693</v>
+        <v>12.298648751471774</v>
       </c>
       <c r="D37">
-        <v>3655.0245792007372</v>
+        <v>23.296009667695785</v>
       </c>
       <c r="E37">
-        <v>23.296009667695785</v>
+        <v>15.031120490009641</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,13 +1009,13 @@
         <v>2011808.8077998087</v>
       </c>
       <c r="C38">
-        <v>-3624.8382717144186</v>
+        <v>120.74431509082387</v>
       </c>
       <c r="D38">
-        <v>3655.0243504871246</v>
+        <v>23.293200597251371</v>
       </c>
       <c r="E38">
-        <v>23.293200597251371</v>
+        <v>14.721958082798324</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,13 +1026,13 @@
         <v>2011974.1058322813</v>
       </c>
       <c r="C39">
-        <v>-3597.9879533185854</v>
+        <v>228.14080179605844</v>
       </c>
       <c r="D39">
-        <v>3655.0231537676</v>
+        <v>23.290320804976261</v>
       </c>
       <c r="E39">
-        <v>23.290320804976261</v>
+        <v>14.475025687523669</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,13 +1043,13 @@
         <v>2012162.8842757284</v>
       </c>
       <c r="C40">
-        <v>-3561.4497878977518</v>
+        <v>374.28836430433512</v>
       </c>
       <c r="D40">
-        <v>3655.0218789738356</v>
+        <v>23.284405959509741</v>
       </c>
       <c r="E40">
-        <v>23.284405959509741</v>
+        <v>14.112724694104202</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,13 +1060,13 @@
         <v>2012285.7763625723</v>
       </c>
       <c r="C41">
-        <v>-3545.1444620687266</v>
+        <v>439.54359677683169</v>
       </c>
       <c r="D41">
-        <v>3655.0303612629345</v>
+        <v>23.278395004720835</v>
       </c>
       <c r="E41">
-        <v>23.278395004720835</v>
+        <v>13.829831142332409</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,13 +1077,13 @@
         <v>2012441.8926658256</v>
       </c>
       <c r="C42">
-        <v>-3576.1975918753997</v>
+        <v>315.42574906177288</v>
       </c>
       <c r="D42">
-        <v>3655.0540291408429</v>
+        <v>23.266176569161757</v>
       </c>
       <c r="E42">
-        <v>23.266176569161757</v>
+        <v>13.421644221419058</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,13 +1094,13 @@
         <v>2012562.0034721228</v>
       </c>
       <c r="C43">
-        <v>-3644.6849779438517</v>
+        <v>41.193649774773803</v>
       </c>
       <c r="D43">
-        <v>3654.9833903875451</v>
+        <v>23.253841332756451</v>
       </c>
       <c r="E43">
-        <v>23.253841332756451</v>
+        <v>13.104728313297073</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,13 +1111,13 @@
         <v>2012760.6559582178</v>
       </c>
       <c r="C44">
-        <v>-3801.4959652614525</v>
+        <v>-588.97845962879364</v>
       </c>
       <c r="D44">
-        <v>3654.2513503542541</v>
+        <v>23.228939793223731</v>
       </c>
       <c r="E44">
-        <v>23.228939793223731</v>
+        <v>12.645149572232071</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,13 +1128,13 @@
         <v>2012943.3840563819</v>
       </c>
       <c r="C45">
-        <v>-3915.3586053316649</v>
+        <v>-1047.3454263902149</v>
       </c>
       <c r="D45">
-        <v>3653.5222487341111</v>
+        <v>23.203904591281002</v>
       </c>
       <c r="E45">
-        <v>23.203904591281002</v>
+        <v>12.284206638749879</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,13 +1145,13 @@
         <v>2013118.021904788</v>
       </c>
       <c r="C46">
-        <v>-3962.3213912354777</v>
+        <v>-1234.1517840962533</v>
       </c>
       <c r="D46">
-        <v>3653.7834452114143</v>
+        <v>23.178787078970458</v>
       </c>
       <c r="E46">
-        <v>23.178787078970458</v>
+        <v>11.984164989324711</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,13 +1162,13 @@
         <v>2013446.0127806668</v>
       </c>
       <c r="C47">
-        <v>-3804.8288340678459</v>
+        <v>-559.65572910921219</v>
       </c>
       <c r="D47">
-        <v>3664.9149017905429</v>
+        <v>23.128396622098307</v>
       </c>
       <c r="E47">
-        <v>23.128396622098307</v>
+        <v>11.512610922503995</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,13 +1179,13 @@
         <v>2013754.8719102752</v>
       </c>
       <c r="C48">
-        <v>-3460.8946130063759</v>
+        <v>917.24071453637225</v>
       </c>
       <c r="D48">
-        <v>3690.204791640469</v>
+        <v>23.077935306111044</v>
       </c>
       <c r="E48">
-        <v>23.077935306111044</v>
+        <v>11.119695760955608</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,13 +1196,13 @@
         <v>2014304.9424273712</v>
       </c>
       <c r="C49">
-        <v>-2395.9542776921994</v>
+        <v>5612.4192366589141</v>
       </c>
       <c r="D49">
-        <v>3799.0590868569279</v>
+        <v>22.977015207604268</v>
       </c>
       <c r="E49">
-        <v>22.977015207604268</v>
+        <v>10.496403264488208</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,13 +1213,13 @@
         <v>2014795.6798262892</v>
       </c>
       <c r="C50">
-        <v>-1166.4522178497637</v>
+        <v>11167.431372925081</v>
       </c>
       <c r="D50">
-        <v>3958.3100610810338</v>
+        <v>22.876226210435902</v>
       </c>
       <c r="E50">
-        <v>22.876226210435902</v>
+        <v>9.9720810084107256</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,13 +1230,13 @@
         <v>2015235.5218206118</v>
       </c>
       <c r="C51">
-        <v>117.99797372931675</v>
+        <v>17105.836772150586</v>
       </c>
       <c r="D51">
-        <v>4158.4612193083294</v>
+        <v>22.77563342322793</v>
       </c>
       <c r="E51">
-        <v>22.77563342322793</v>
+        <v>9.5132562279846979</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,13 +1247,13 @@
         <v>2016017.6685414463</v>
       </c>
       <c r="C52">
-        <v>2665.4051221098398</v>
+        <v>29179.225566414116</v>
       </c>
       <c r="D52">
-        <v>4629.4012694936891</v>
+        <v>22.574995636923461</v>
       </c>
       <c r="E52">
-        <v>22.574995636923461</v>
+        <v>8.6979046790227699</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,13 +1264,13 @@
         <v>2016667.8712587049</v>
       </c>
       <c r="C53">
-        <v>5094.1187672568585</v>
+        <v>41132.575589951965</v>
       </c>
       <c r="D53">
-        <v>5189.0251302311326</v>
+        <v>22.375283744165813</v>
       </c>
       <c r="E53">
-        <v>22.375283744165813</v>
+        <v>8.0060724135538521</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,13 +1281,13 @@
         <v>1895997.1790869865</v>
       </c>
       <c r="C54">
-        <v>9315.2566420210042</v>
+        <v>63010.170952877059</v>
       </c>
       <c r="D54">
-        <v>6437.2860961982606</v>
+        <v>21.994729698899107</v>
       </c>
       <c r="E54">
-        <v>21.994729698899107</v>
+        <v>7.5120674731980444</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,13 +1298,13 @@
         <v>1872975.3251691475</v>
       </c>
       <c r="C55">
-        <v>10110.651721715751</v>
+        <v>67348.187086987644</v>
       </c>
       <c r="D55">
-        <v>6726.3950500311594</v>
+        <v>21.915986108229788</v>
       </c>
       <c r="E55">
-        <v>21.915986108229788</v>
+        <v>7.4553386471381486</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,13 +1315,13 @@
         <v>1831656.1221588179</v>
       </c>
       <c r="C56">
-        <v>11564.210356995613</v>
+        <v>75481.085469491183</v>
       </c>
       <c r="D56">
-        <v>7306.0610103771824</v>
+        <v>21.761549215899322</v>
       </c>
       <c r="E56">
-        <v>21.761549215899322</v>
+        <v>7.3333142318151658</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,13 +1332,13 @@
         <v>1763555.7257685929</v>
       </c>
       <c r="C57">
-        <v>13806.961350463382</v>
+        <v>89041.833374024631</v>
       </c>
       <c r="D57">
-        <v>8453.4969930427778</v>
+        <v>21.47068669293634</v>
       </c>
       <c r="E57">
-        <v>21.47068669293634</v>
+        <v>7.1333482424556109</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,13 +1349,13 @@
         <v>1703398.2796080217</v>
       </c>
       <c r="C58">
-        <v>15681.006716097048</v>
+        <v>101032.33901187417</v>
       </c>
       <c r="D58">
-        <v>9577.078036871495</v>
+        <v>21.192390436312451</v>
       </c>
       <c r="E58">
-        <v>21.192390436312451</v>
+        <v>6.9573402614252018</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,13 +1366,13 @@
         <v>1604171.3976749838</v>
       </c>
       <c r="C59">
-        <v>18474.849184849791</v>
+        <v>120811.42941994133</v>
       </c>
       <c r="D59">
-        <v>11728.008170135539</v>
+        <v>20.676849298097352</v>
       </c>
       <c r="E59">
-        <v>20.676849298097352</v>
+        <v>6.6671256181075478</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,13 +1383,13 @@
         <v>1520014.3155620464</v>
       </c>
       <c r="C60">
-        <v>20613.089404675331</v>
+        <v>137599.72114354777</v>
       </c>
       <c r="D60">
-        <v>13786.840881211609</v>
+        <v>20.196417148589205</v>
       </c>
       <c r="E60">
-        <v>20.196417148589205</v>
+        <v>6.4210880016696024</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,13 +1400,13 @@
         <v>1447035.1837755174</v>
       </c>
       <c r="C61">
-        <v>22286.614636208473</v>
+        <v>152185.01562717845</v>
       </c>
       <c r="D61">
-        <v>15759.63927058614</v>
+        <v>19.746442943247928</v>
       </c>
       <c r="E61">
-        <v>19.746442943247928</v>
+        <v>6.2078260097817406</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,13 +1417,13 @@
         <v>1320214.602250709</v>
       </c>
       <c r="C62">
-        <v>24892.110541508428</v>
+        <v>177652.02144957421</v>
       </c>
       <c r="D62">
-        <v>19520.894820885129</v>
+        <v>18.907703029874938</v>
       </c>
       <c r="E62">
-        <v>18.907703029874938</v>
+        <v>5.8374066521253667</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,13 +1434,13 @@
         <v>1217783.7144332228</v>
       </c>
       <c r="C63">
-        <v>26605.245920317728</v>
+        <v>198445.31093716563</v>
       </c>
       <c r="D63">
-        <v>23006.081813973677</v>
+        <v>18.156164000658066</v>
       </c>
       <c r="E63">
-        <v>18.156164000658066</v>
+        <v>5.5384682736174113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,13 +1451,13 @@
         <v>1058517.2281607296</v>
       </c>
       <c r="C64">
-        <v>28636.433642318516</v>
+        <v>231508.4936122332</v>
       </c>
       <c r="D64">
-        <v>29240.68976073978</v>
+        <v>16.861344642523079</v>
       </c>
       <c r="E64">
-        <v>16.861344642523079</v>
+        <v>5.0740790485398293</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1550,13 +1468,13 @@
         <v>942789.03461337998</v>
       </c>
       <c r="C65">
-        <v>29492.455316394364</v>
+        <v>256353.3638300068</v>
       </c>
       <c r="D65">
-        <v>34595.885641107336</v>
+        <v>15.795195096957229</v>
       </c>
       <c r="E65">
-        <v>15.795195096957229</v>
+        <v>4.7370414632073334</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,13 +1485,13 @@
         <v>854566.59618042945</v>
       </c>
       <c r="C66">
-        <v>29767.023727291991</v>
+        <v>275806.00410785008</v>
       </c>
       <c r="D66">
-        <v>39184.477299670529</v>
+        <v>14.905157193149364</v>
       </c>
       <c r="E66">
-        <v>14.905157193149364</v>
+        <v>4.4803363282723012</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,13 +1502,13 @@
         <v>784691.70414866507</v>
       </c>
       <c r="C67">
-        <v>29744.91977254118</v>
+        <v>291366.8494934591</v>
       </c>
       <c r="D67">
-        <v>43096.792600823588</v>
+        <v>14.152857869983677</v>
       </c>
       <c r="E67">
-        <v>14.152857869983677</v>
+        <v>4.2771387465103317</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,13 +1519,13 @@
         <v>716589.12664317118</v>
       </c>
       <c r="C68">
-        <v>29514.120849461513</v>
+        <v>306300.51998181711</v>
       </c>
       <c r="D68">
-        <v>47061.009145992764</v>
+        <v>13.381517871001222</v>
       </c>
       <c r="E68">
-        <v>13.381517871001222</v>
+        <v>4.0791759899084923</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,13 +1536,13 @@
         <v>662441.26558013225</v>
       </c>
       <c r="C69">
-        <v>29148.549340717356</v>
+        <v>317633.17269498296</v>
       </c>
       <c r="D69">
-        <v>50259.743833028391</v>
+        <v>12.737711657383443</v>
       </c>
       <c r="E69">
-        <v>12.737711657383443</v>
+        <v>3.9218346317608734</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,13 +1553,13 @@
         <v>618639.48200434912</v>
       </c>
       <c r="C70">
-        <v>28710.571710338641</v>
+        <v>326058.24290764716</v>
       </c>
       <c r="D70">
-        <v>52803.989016573141</v>
+        <v>12.195288857499918</v>
       </c>
       <c r="E70">
-        <v>12.195288857499918</v>
+        <v>3.7945923154533716</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1652,13 +1570,13 @@
         <v>582650.68969934969</v>
       </c>
       <c r="C71">
-        <v>28237.946970438363</v>
+        <v>332143.29106006463</v>
       </c>
       <c r="D71">
-        <v>54797.875794577798</v>
+        <v>11.734053163164845</v>
       </c>
       <c r="E71">
-        <v>11.734053163164845</v>
+        <v>3.6900692268501984</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1669,13 +1587,13 @@
         <v>564219.22565337841</v>
       </c>
       <c r="C72">
-        <v>27953.56075398398</v>
+        <v>334856.08423100528</v>
       </c>
       <c r="D72">
-        <v>55760.460303767337</v>
+        <v>11.492464227757523</v>
       </c>
       <c r="E72">
-        <v>11.492464227757523</v>
+        <v>3.6365453862977688</v>
       </c>
     </row>
   </sheetData>
@@ -1683,11 +1601,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1698,19 +1618,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,13 +1641,13 @@
         <v>223524.77308938871</v>
       </c>
       <c r="C2">
-        <v>-6042.425126279848</v>
+        <v>-2.8709837351925671E-7</v>
       </c>
       <c r="D2">
-        <v>6042.4251262080734</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E2">
-        <v>23.79060468184349</v>
+        <v>26.144841201035376</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,13 +1658,13 @@
         <v>386851.62427287083</v>
       </c>
       <c r="C3">
-        <v>-6042.425126279848</v>
+        <v>-2.8709837351925671E-7</v>
       </c>
       <c r="D3">
-        <v>6042.4251262080734</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E3">
-        <v>23.79060468184349</v>
+        <v>24.111980199998015</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,13 +1675,13 @@
         <v>453163.02076774056</v>
       </c>
       <c r="C4">
-        <v>-6042.425126203274</v>
+        <v>1.9128492567688227E-8</v>
       </c>
       <c r="D4">
-        <v>6042.4251262080561</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E4">
-        <v>23.79060468184349</v>
+        <v>22.949944968252623</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,13 +1692,13 @@
         <v>555869.75276777695</v>
       </c>
       <c r="C5">
-        <v>-6042.4251262024791</v>
+        <v>2.2286258172243834E-8</v>
       </c>
       <c r="D5">
-        <v>6042.4251262080506</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E5">
-        <v>23.79060468184349</v>
+        <v>22.30805105348594</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,13 +1709,13 @@
         <v>643658.60424165637</v>
       </c>
       <c r="C6">
-        <v>-6042.4251262058851</v>
+        <v>8.6583895608782768E-9</v>
       </c>
       <c r="D6">
-        <v>6042.4251262080497</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E6">
-        <v>23.79060468184349</v>
+        <v>22.720082336518487</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,13 +1726,13 @@
         <v>759251.40758178569</v>
       </c>
       <c r="C7">
-        <v>-6042.4251262086127</v>
+        <v>-2.2409949451684952E-9</v>
       </c>
       <c r="D7">
-        <v>6042.4251262080525</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E7">
-        <v>23.79060468184349</v>
+        <v>22.297366141910118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,13 +1743,13 @@
         <v>897248.20067736029</v>
       </c>
       <c r="C8">
-        <v>-6042.4251262076505</v>
+        <v>1.622538547962904E-9</v>
       </c>
       <c r="D8">
-        <v>6042.4251262080561</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E8">
-        <v>23.79060468184349</v>
+        <v>22.172796029476501</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,13 +1760,13 @@
         <v>1074170.1687657814</v>
       </c>
       <c r="C9">
-        <v>-6042.4251262058306</v>
+        <v>8.8875822257250547E-9</v>
       </c>
       <c r="D9">
-        <v>6042.4251262080525</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E9">
-        <v>23.79060468184349</v>
+        <v>22.241681031551536</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,13 +1777,13 @@
         <v>1198411.4904753929</v>
       </c>
       <c r="C10">
-        <v>-6042.4251262068738</v>
+        <v>4.71482053399086E-9</v>
       </c>
       <c r="D10">
-        <v>6042.4251262080525</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E10">
-        <v>23.79060468184349</v>
+        <v>22.287413096607622</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,13 +1794,13 @@
         <v>1342578.9189235405</v>
       </c>
       <c r="C11">
-        <v>-6042.4251262065045</v>
+        <v>6.1991158872842789E-9</v>
       </c>
       <c r="D11">
-        <v>6042.4251262080543</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E11">
-        <v>23.79060468184349</v>
+        <v>22.443262196711771</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,13 +1811,13 @@
         <v>1431392.2926708916</v>
       </c>
       <c r="C12">
-        <v>-6042.4251262073394</v>
+        <v>2.8558133635669947E-9</v>
       </c>
       <c r="D12">
-        <v>6042.4251262080534</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E12">
-        <v>23.79060468184349</v>
+        <v>22.60865832939453</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,13 +1828,13 @@
         <v>1510804.0058888951</v>
       </c>
       <c r="C13">
-        <v>-6042.4251262045163</v>
+        <v>1.4151737559586763E-8</v>
       </c>
       <c r="D13">
-        <v>6042.4251262080543</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E13">
-        <v>23.79060468184349</v>
+        <v>22.888216095148721</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,13 +1845,13 @@
         <v>1545588.8913726001</v>
       </c>
       <c r="C14">
-        <v>-6042.4251262003936</v>
+        <v>3.0591763788834214E-8</v>
       </c>
       <c r="D14">
-        <v>6042.4251262080415</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E14">
-        <v>23.79060468184349</v>
+        <v>23.115555996326577</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,13 +1862,13 @@
         <v>1577441.4896475812</v>
       </c>
       <c r="C15">
-        <v>-6042.4251260848232</v>
+        <v>4.9280060920864344E-7</v>
       </c>
       <c r="D15">
-        <v>6042.4251262080234</v>
+        <v>23.79060468184349</v>
       </c>
       <c r="E15">
-        <v>23.79060468184349</v>
+        <v>23.306993436086543</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,13 +1879,13 @@
         <v>1609586.0382126973</v>
       </c>
       <c r="C16">
-        <v>-6042.4251264327686</v>
+        <v>-8.983588486444205E-7</v>
       </c>
       <c r="D16">
-        <v>6042.4251262081789</v>
+        <v>23.790604681843718</v>
       </c>
       <c r="E16">
-        <v>23.790604681843718</v>
+        <v>23.322996759343539</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,13 +1896,13 @@
         <v>1676169.4791925987</v>
       </c>
       <c r="C17">
-        <v>-6042.4251255818654</v>
+        <v>2.5048866518773139E-6</v>
       </c>
       <c r="D17">
-        <v>6042.425126208087</v>
+        <v>23.790604681843945</v>
       </c>
       <c r="E17">
-        <v>23.790604681843945</v>
+        <v>23.167779416141798</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,13 +1913,13 @@
         <v>1763639.2083301423</v>
       </c>
       <c r="C18">
-        <v>-6042.4251261559693</v>
+        <v>2.0722291083075106E-7</v>
       </c>
       <c r="D18">
-        <v>6042.4251262077751</v>
+        <v>23.790604681842296</v>
       </c>
       <c r="E18">
-        <v>23.790604681842296</v>
+        <v>22.863447918979205</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,13 +1930,13 @@
         <v>1817872.7544679055</v>
       </c>
       <c r="C19">
-        <v>-6042.4251119751189</v>
+        <v>5.6941476941574365E-5</v>
       </c>
       <c r="D19">
-        <v>6042.4251262104881</v>
+        <v>23.790604681855427</v>
       </c>
       <c r="E19">
-        <v>23.790604681855427</v>
+        <v>22.614217607264322</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,13 +1947,13 @@
         <v>1875133.6167755907</v>
       </c>
       <c r="C20">
-        <v>-6042.4251258482018</v>
+        <v>1.4334509614855051E-6</v>
       </c>
       <c r="D20">
-        <v>6042.4251262065645</v>
+        <v>23.790604681841842</v>
       </c>
       <c r="E20">
-        <v>23.790604681841842</v>
+        <v>22.244448649539663</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,13 +1964,13 @@
         <v>1909322.62586915</v>
       </c>
       <c r="C21">
-        <v>-6042.4252715165767</v>
+        <v>-5.8126211297349073E-4</v>
       </c>
       <c r="D21">
-        <v>6042.4251262010484</v>
+        <v>23.790604681803643</v>
       </c>
       <c r="E21">
-        <v>23.790604681803643</v>
+        <v>21.958926347021645</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,13 +1981,13 @@
         <v>1943683.9163420147</v>
       </c>
       <c r="C22">
-        <v>-6042.4252260903368</v>
+        <v>-3.9989322613109834E-4</v>
       </c>
       <c r="D22">
-        <v>6042.4251261170302</v>
+        <v>23.790604680796321</v>
       </c>
       <c r="E22">
-        <v>23.790604680796321</v>
+        <v>21.565481381944267</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,13 +1998,13 @@
         <v>1962891.3602194008</v>
       </c>
       <c r="C23">
-        <v>-6042.4346003670071</v>
+        <v>-3.7899932973232353E-2</v>
       </c>
       <c r="D23">
-        <v>6042.4251253837638</v>
+        <v>23.790604664613966</v>
       </c>
       <c r="E23">
-        <v>23.790604664613966</v>
+        <v>21.274338205806316</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,13 +2015,13 @@
         <v>1981116.9961129548</v>
       </c>
       <c r="C24">
-        <v>-6042.6826006346473</v>
+        <v>-1.0299313481627905</v>
       </c>
       <c r="D24">
-        <v>6042.4251177976066</v>
+        <v>23.790604216457552</v>
       </c>
       <c r="E24">
-        <v>23.790604216457552</v>
+        <v>20.88113512235833</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,13 +2032,13 @@
         <v>1991014.4169366427</v>
       </c>
       <c r="C25">
-        <v>-6043.3194383974878</v>
+        <v>-3.5773326114831434</v>
       </c>
       <c r="D25">
-        <v>6042.425105244617</v>
+        <v>23.790602916230625</v>
       </c>
       <c r="E25">
-        <v>23.790602916230625</v>
+        <v>20.591918527331302</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,13 +2049,13 @@
         <v>2000275.4624616527</v>
       </c>
       <c r="C26">
-        <v>-6046.3271897553295</v>
+        <v>-15.608420769811346</v>
       </c>
       <c r="D26">
-        <v>6042.4250845628767</v>
+        <v>23.790594604694661</v>
       </c>
       <c r="E26">
-        <v>23.790594604694661</v>
+        <v>20.202013488109799</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,13 +2066,13 @@
         <v>2005290.1250654825</v>
       </c>
       <c r="C27">
-        <v>-6050.6906125660844</v>
+        <v>-33.062144878455001</v>
       </c>
       <c r="D27">
-        <v>6042.4250763464706</v>
+        <v>23.790579628623789</v>
       </c>
       <c r="E27">
-        <v>23.790579628623789</v>
+        <v>19.915433616179655</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,13 +2083,13 @@
         <v>2010033.6013594572</v>
       </c>
       <c r="C28">
-        <v>-6061.2530482744623</v>
+        <v>-75.311984495729121</v>
       </c>
       <c r="D28">
-        <v>6042.4250521505301</v>
+        <v>23.790525065462759</v>
       </c>
       <c r="E28">
-        <v>23.790525065462759</v>
+        <v>19.531291379511629</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,13 +2100,13 @@
         <v>2012643.2215670682</v>
       </c>
       <c r="C29">
-        <v>-6071.4441052406528</v>
+        <v>-116.07649599107026</v>
       </c>
       <c r="D29">
-        <v>6042.4249812428852</v>
+        <v>23.790450086980684</v>
       </c>
       <c r="E29">
-        <v>23.790450086980684</v>
+        <v>19.252240617175403</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,13 +2117,13 @@
         <v>2015123.5776589673</v>
       </c>
       <c r="C30">
-        <v>-6084.2557415729025</v>
+        <v>-167.32371697265626</v>
       </c>
       <c r="D30">
-        <v>6042.4248123297384</v>
+        <v>23.790246687930448</v>
       </c>
       <c r="E30">
-        <v>23.790246687930448</v>
+        <v>18.886978903847705</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,13 +2134,13 @@
         <v>2016459.897218602</v>
       </c>
       <c r="C31">
-        <v>-6089.0516341906514</v>
+        <v>-186.50735692251328</v>
       </c>
       <c r="D31">
-        <v>6042.4247949600231</v>
+        <v>23.790007153763781</v>
       </c>
       <c r="E31">
-        <v>23.790007153763781</v>
+        <v>18.62610869668282</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,13 +2151,13 @@
         <v>2017674.1831934643</v>
       </c>
       <c r="C32">
-        <v>-6075.8001641047231</v>
+        <v>-133.49978556638598</v>
       </c>
       <c r="D32">
-        <v>6042.4252177131266</v>
+        <v>23.789448864805763</v>
       </c>
       <c r="E32">
-        <v>23.789448864805763</v>
+        <v>18.283952653730239</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,13 +2168,13 @@
         <v>2018314.910215209</v>
       </c>
       <c r="C33">
-        <v>-6049.5279483272916</v>
+        <v>-28.409406955863233</v>
       </c>
       <c r="D33">
-        <v>6042.4255965883258</v>
+        <v>23.788841574390631</v>
       </c>
       <c r="E33">
-        <v>23.788841574390631</v>
+        <v>18.034963772267474</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,13 +2185,13 @@
         <v>2018919.6413216928</v>
       </c>
       <c r="C34">
-        <v>-5985.5903308742872</v>
+        <v>227.34070082439575</v>
       </c>
       <c r="D34">
-        <v>6042.4255060803862</v>
+        <v>23.7875260769286</v>
       </c>
       <c r="E34">
-        <v>23.7875260769286</v>
+        <v>17.698665878226109</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,13 +2202,13 @@
         <v>2019260.0229907681</v>
       </c>
       <c r="C35">
-        <v>-5928.3213733096163</v>
+        <v>456.41397061001408</v>
       </c>
       <c r="D35">
-        <v>6042.4248659621198</v>
+        <v>23.786150324243692</v>
       </c>
       <c r="E35">
-        <v>23.786150324243692</v>
+        <v>17.450199207149581</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,13 +2219,13 @@
         <v>2019606.1177101051</v>
       </c>
       <c r="C36">
-        <v>-5871.3326568046232</v>
+        <v>684.3664261005033</v>
       </c>
       <c r="D36">
-        <v>6042.424263329749</v>
+        <v>23.783280657892931</v>
       </c>
       <c r="E36">
-        <v>23.783280657892931</v>
+        <v>17.113544688175409</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,13 +2236,13 @@
         <v>2019813.0260719433</v>
       </c>
       <c r="C37">
-        <v>-5865.2938652669582</v>
+        <v>708.54174454320309</v>
       </c>
       <c r="D37">
-        <v>6042.4293014027589</v>
+        <v>23.780343504503378</v>
       </c>
       <c r="E37">
-        <v>23.780343504503378</v>
+        <v>16.864914966074423</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,13 +2253,13 @@
         <v>2020051.1506564131</v>
       </c>
       <c r="C38">
-        <v>-5967.3033486497288</v>
+        <v>300.53876329879131</v>
       </c>
       <c r="D38">
-        <v>6042.4380394744267</v>
+        <v>23.774342874707713</v>
       </c>
       <c r="E38">
-        <v>23.774342874707713</v>
+        <v>16.525667803282261</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,13 +2270,13 @@
         <v>2020220.4563359676</v>
       </c>
       <c r="C39">
-        <v>-6116.1335465730072</v>
+        <v>-295.07176674452057</v>
       </c>
       <c r="D39">
-        <v>6042.365604886877</v>
+        <v>23.768271561523534</v>
       </c>
       <c r="E39">
-        <v>23.768271561523534</v>
+        <v>16.271772231430873</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,13 +2287,13 @@
         <v>2020478.3386332123</v>
       </c>
       <c r="C40">
-        <v>-6387.080779171898</v>
+        <v>-1381.5372337242079</v>
       </c>
       <c r="D40">
-        <v>6041.6964707408461</v>
+        <v>23.755997070400781</v>
       </c>
       <c r="E40">
-        <v>23.755997070400781</v>
+        <v>15.916256573300075</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,13 +2304,13 @@
         <v>2020703.9786041072</v>
       </c>
       <c r="C41">
-        <v>-6564.3656565947258</v>
+        <v>-2093.6086151209274</v>
       </c>
       <c r="D41">
-        <v>6040.9635028144939</v>
+        <v>23.743649156503068</v>
       </c>
       <c r="E41">
-        <v>23.743649156503068</v>
+        <v>15.643531999598508</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,13 +2321,13 @@
         <v>2021104.1816136758</v>
       </c>
       <c r="C42">
-        <v>-6547.2626130036888</v>
+        <v>-2008.8945994524402</v>
       </c>
       <c r="D42">
-        <v>6045.0389631405787</v>
+        <v>23.718826422691734</v>
       </c>
       <c r="E42">
-        <v>23.718826422691734</v>
+        <v>15.248308500887333</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,13 +2338,13 @@
         <v>2021471.4790376942</v>
       </c>
       <c r="C43">
-        <v>-6268.7335617795907</v>
+        <v>-840.42073813399475</v>
       </c>
       <c r="D43">
-        <v>6058.628377246092</v>
+        <v>23.693945594399281</v>
       </c>
       <c r="E43">
-        <v>23.693945594399281</v>
+        <v>14.936223985895424</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,13 +2355,13 @@
         <v>2022113.1674972954</v>
       </c>
       <c r="C44">
-        <v>-5229.1121212585776</v>
+        <v>3602.0034221610003</v>
       </c>
       <c r="D44">
-        <v>6129.6129767988277</v>
+        <v>23.644151614191344</v>
       </c>
       <c r="E44">
-        <v>23.644151614191344</v>
+        <v>14.467477368611753</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,13 +2372,13 @@
         <v>2022680.0579997478</v>
       </c>
       <c r="C45">
-        <v>-4002.020839347585</v>
+        <v>8949.6821873030785</v>
       </c>
       <c r="D45">
-        <v>6239.4413861733547</v>
+        <v>23.594404667733443</v>
       </c>
       <c r="E45">
-        <v>23.594404667733443</v>
+        <v>14.087496810740163</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,13 +2389,13 @@
         <v>2023185.5729960555</v>
       </c>
       <c r="C46">
-        <v>-2724.4788628208171</v>
+        <v>14624.9221639723</v>
       </c>
       <c r="D46">
-        <v>6380.7094038138921</v>
+        <v>23.544741296619236</v>
       </c>
       <c r="E46">
-        <v>23.544741296619236</v>
+        <v>13.763656938250165</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,13 +2406,13 @@
         <v>2024082.5747513701</v>
       </c>
       <c r="C47">
-        <v>-219.98645296497784</v>
+        <v>25986.014090843939</v>
       </c>
       <c r="D47">
-        <v>6716.4899756759623</v>
+        <v>23.445654024290093</v>
       </c>
       <c r="E47">
-        <v>23.445654024290093</v>
+        <v>13.20063835994074</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,13 +2423,13 @@
         <v>2024828.0054882588</v>
       </c>
       <c r="C48">
-        <v>2119.1157821986562</v>
+        <v>36946.786286416696</v>
       </c>
       <c r="D48">
-        <v>7117.5807894055179</v>
+        <v>23.346970571661416</v>
       </c>
       <c r="E48">
-        <v>23.346970571661416</v>
+        <v>12.73779472497796</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,13 +2440,13 @@
         <v>2026019.368493774</v>
       </c>
       <c r="C49">
-        <v>6161.4749734059624</v>
+        <v>56704.418187805415</v>
       </c>
       <c r="D49">
-        <v>8014.6295735453914</v>
+        <v>23.150873478241408</v>
       </c>
       <c r="E49">
-        <v>23.150873478241408</v>
+        <v>11.974160821969747</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,13 +2457,13 @@
         <v>2026923.4595376882</v>
       </c>
       <c r="C50">
-        <v>9489.8595765430782</v>
+        <v>73893.244874982483</v>
       </c>
       <c r="D50">
-        <v>8983.4516422025408</v>
+        <v>22.956374126811397</v>
       </c>
       <c r="E50">
-        <v>22.956374126811397</v>
+        <v>11.355864626526227</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,13 +2474,13 @@
         <v>2027647.0215615937</v>
       </c>
       <c r="C51">
-        <v>12282.288233731531</v>
+        <v>89039.425552100642</v>
       </c>
       <c r="D51">
-        <v>9977.5681542936272</v>
+        <v>22.763339836912053</v>
       </c>
       <c r="E51">
-        <v>22.763339836912053</v>
+        <v>10.821431232386431</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,13 +2491,13 @@
         <v>2028252.1016497246</v>
       </c>
       <c r="C52">
-        <v>14690.515580099645</v>
+        <v>102673.11799915838</v>
       </c>
       <c r="D52">
-        <v>10977.763919689949</v>
+        <v>22.571641154512236</v>
       </c>
       <c r="E52">
-        <v>22.571641154512236</v>
+        <v>10.339859734348522</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,13 +2508,13 @@
         <v>2029251.4607094717</v>
       </c>
       <c r="C53">
-        <v>18800.736290822359</v>
+        <v>127095.36845607393</v>
       </c>
       <c r="D53">
-        <v>12973.105823196125</v>
+        <v>22.191750271659316</v>
       </c>
       <c r="E53">
-        <v>22.191750271659316</v>
+        <v>9.4699270168922567</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2605,13 +2525,13 @@
         <v>2030034.4696973059</v>
       </c>
       <c r="C54">
-        <v>22191.23570231711</v>
+        <v>148611.92067795829</v>
       </c>
       <c r="D54">
-        <v>14961.744467172466</v>
+        <v>21.816192273776721</v>
       </c>
       <c r="E54">
-        <v>21.816192273776721</v>
+        <v>8.6965150381914214</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,13 +2542,13 @@
         <v>1959603.8768959648</v>
       </c>
       <c r="C55">
-        <v>27477.409258941545</v>
+        <v>185363.04226564633</v>
       </c>
       <c r="D55">
-        <v>18863.351307470042</v>
+        <v>21.094696956314635</v>
       </c>
       <c r="E55">
-        <v>21.094696956314635</v>
+        <v>7.6666076868327764</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2639,13 +2559,13 @@
         <v>1816995.6276360813</v>
       </c>
       <c r="C56">
-        <v>30911.355741507527</v>
+        <v>213992.07425689878</v>
       </c>
       <c r="D56">
-        <v>22586.662822717171</v>
+        <v>20.429431009892767</v>
       </c>
       <c r="E56">
-        <v>20.429431009892767</v>
+        <v>7.2564491889423266</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,13 +2576,13 @@
         <v>1705737.9697922659</v>
       </c>
       <c r="C57">
-        <v>33083.098217419887</v>
+        <v>236691.67290786729</v>
       </c>
       <c r="D57">
-        <v>26089.82000954694</v>
+        <v>19.818441690153634</v>
       </c>
       <c r="E57">
-        <v>19.818441690153634</v>
+        <v>6.9392700715832234</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,13 +2593,13 @@
         <v>1620773.0004660278</v>
       </c>
       <c r="C58">
-        <v>34315.208338315031</v>
+        <v>254428.9775344168</v>
       </c>
       <c r="D58">
-        <v>29292.036045289169</v>
+        <v>19.275004440082171</v>
       </c>
       <c r="E58">
-        <v>19.275004440082171</v>
+        <v>6.6839347468760479</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,13 +2610,13 @@
         <v>1544148.5275604604</v>
       </c>
       <c r="C59">
-        <v>35273.528566316214</v>
+        <v>270388.72920424311</v>
       </c>
       <c r="D59">
-        <v>32323.653734744563</v>
+        <v>18.768768028519332</v>
       </c>
       <c r="E59">
-        <v>18.768768028519332</v>
+        <v>6.4609938768903135</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,13 +2627,13 @@
         <v>1418546.3072471204</v>
       </c>
       <c r="C60">
-        <v>36478.591724778686</v>
+        <v>297102.78121711483</v>
       </c>
       <c r="D60">
-        <v>37797.103579500021</v>
+        <v>17.876793846776707</v>
       </c>
       <c r="E60">
-        <v>17.876793846776707</v>
+        <v>6.096391046792462</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,13 +2644,13 @@
         <v>1313942.5673537632</v>
       </c>
       <c r="C61">
-        <v>37203.553516040483</v>
+        <v>319775.62615939503</v>
       </c>
       <c r="D61">
-        <v>42740.353023808275</v>
+        <v>17.086318944853986</v>
       </c>
       <c r="E61">
-        <v>17.086318944853986</v>
+        <v>5.7929572761916575</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,13 +2661,13 @@
         <v>1224122.727249214</v>
       </c>
       <c r="C62">
-        <v>37605.433550054084</v>
+        <v>339512.15472007846</v>
       </c>
       <c r="D62">
-        <v>47272.60512996553</v>
+        <v>16.370645246621393</v>
       </c>
       <c r="E62">
-        <v>16.370645246621393</v>
+        <v>5.5326000455519875</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,13 +2678,13 @@
         <v>1147381.4778951639</v>
       </c>
       <c r="C63">
-        <v>37775.428502428622</v>
+        <v>356491.40873945679</v>
       </c>
       <c r="D63">
-        <v>51347.423682435583</v>
+        <v>15.731034147240337</v>
       </c>
       <c r="E63">
-        <v>15.731034147240337</v>
+        <v>5.3102959498608584</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,13 +2695,13 @@
         <v>1081131.6899604485</v>
       </c>
       <c r="C64">
-        <v>37782.645222118575</v>
+        <v>371136.69181861891</v>
       </c>
       <c r="D64">
-        <v>55001.52773253616</v>
+        <v>15.157070477442062</v>
       </c>
       <c r="E64">
-        <v>15.157070477442062</v>
+        <v>5.1184878553238491</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,13 +2712,13 @@
         <v>1021048.4706090633</v>
       </c>
       <c r="C65">
-        <v>37702.833999334354</v>
+        <v>384357.48660652025</v>
       </c>
       <c r="D65">
-        <v>58386.537652295716</v>
+        <v>14.62348398912934</v>
       </c>
       <c r="E65">
-        <v>14.62348398912934</v>
+        <v>4.9445933969835778</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,13 +2729,13 @@
         <v>1003283.5106967359</v>
       </c>
       <c r="C66">
-        <v>37658.028413525128</v>
+        <v>388233.20868814801</v>
       </c>
       <c r="D66">
-        <v>59400.273758511874</v>
+        <v>14.462689327779401</v>
       </c>
       <c r="E66">
-        <v>14.462689327779401</v>
+        <v>4.8931910099927336</v>
       </c>
     </row>
   </sheetData>
@@ -2823,11 +2743,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2838,19 +2760,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,13 +2783,13 @@
         <v>255497.90251307035</v>
       </c>
       <c r="C2">
-        <v>-9026.6195817746921</v>
+        <v>-2.9914808692410588E-6</v>
       </c>
       <c r="D2">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E2">
-        <v>24.278386231439015</v>
+        <v>26.176733867441328</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,13 +2800,13 @@
         <v>418113.92352704424</v>
       </c>
       <c r="C3">
-        <v>-9026.6195817746921</v>
+        <v>-2.9914808692410588E-6</v>
       </c>
       <c r="D3">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E3">
-        <v>24.278386231439015</v>
+        <v>24.474252324074712</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,13 +2817,13 @@
         <v>476332.29697414761</v>
       </c>
       <c r="C4">
-        <v>-9026.6195810052759</v>
+        <v>8.6190993897616863E-8</v>
       </c>
       <c r="D4">
-        <v>9026.6195810268237</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E4">
-        <v>24.278386231439015</v>
+        <v>23.250633008398211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,13 +2834,13 @@
         <v>593826.84637937206</v>
       </c>
       <c r="C5">
-        <v>-9026.6195809950623</v>
+        <v>1.2705277185887098E-7</v>
       </c>
       <c r="D5">
-        <v>9026.6195810268255</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E5">
-        <v>24.278386231439015</v>
+        <v>22.421307543129501</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2929,13 +2851,13 @@
         <v>731447.8211551581</v>
       </c>
       <c r="C6">
-        <v>-9026.6195810250811</v>
+        <v>6.9776433520019054E-9</v>
       </c>
       <c r="D6">
-        <v>9026.6195810268255</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E6">
-        <v>24.278386231439015</v>
+        <v>22.175312613620179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,13 +2868,13 @@
         <v>883472.39763633045</v>
       </c>
       <c r="C7">
-        <v>-9026.6195810439076</v>
+        <v>-6.834306987002492E-8</v>
       </c>
       <c r="D7">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E7">
-        <v>24.278386231439015</v>
+        <v>22.343685897702471</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,13 +2885,13 @@
         <v>1022583.3954872993</v>
       </c>
       <c r="C8">
-        <v>-9026.6195810360696</v>
+        <v>-3.6983692552894354E-8</v>
       </c>
       <c r="D8">
-        <v>9026.6195810268237</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E8">
-        <v>24.278386231439015</v>
+        <v>22.237172340034931</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,13 +2902,13 @@
         <v>1195737.9139738246</v>
       </c>
       <c r="C9">
-        <v>-9026.6195810295849</v>
+        <v>-1.1052179615944624E-8</v>
       </c>
       <c r="D9">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E9">
-        <v>24.278386231439015</v>
+        <v>22.264073320906505</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,13 +2919,13 @@
         <v>1317239.4358491744</v>
       </c>
       <c r="C10">
-        <v>-9026.6195810339323</v>
+        <v>-2.8448994271457195E-8</v>
       </c>
       <c r="D10">
-        <v>9026.61958102682</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E10">
-        <v>24.278386231439015</v>
+        <v>22.336127579500214</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,13 +2936,13 @@
         <v>1460129.7674040755</v>
       </c>
       <c r="C11">
-        <v>-9026.619581034558</v>
+        <v>-3.094464773312211E-8</v>
       </c>
       <c r="D11">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E11">
-        <v>24.278386231439015</v>
+        <v>22.493974124601095</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,13 +2953,13 @@
         <v>1551503.5028263466</v>
       </c>
       <c r="C12">
-        <v>-9026.6195810309109</v>
+        <v>-1.6363628674298525E-8</v>
       </c>
       <c r="D12">
-        <v>9026.61958102682</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E12">
-        <v>24.278386231439015</v>
+        <v>22.63908525179761</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,13 +2970,13 @@
         <v>1627731.4746268005</v>
       </c>
       <c r="C13">
-        <v>-9026.6195809989767</v>
+        <v>1.1138035915791988E-7</v>
       </c>
       <c r="D13">
-        <v>9026.6195810268218</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E13">
-        <v>24.278386231439015</v>
+        <v>22.931854240830603</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,13 +2987,13 @@
         <v>1654157.0670837548</v>
       </c>
       <c r="C14">
-        <v>-9026.6195807878175</v>
+        <v>9.5603172667324543E-7</v>
       </c>
       <c r="D14">
-        <v>9026.6195810268255</v>
+        <v>24.278386231439015</v>
       </c>
       <c r="E14">
-        <v>24.278386231439015</v>
+        <v>23.195879352227735</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,13 +3004,13 @@
         <v>1656568.324994799</v>
       </c>
       <c r="C15">
-        <v>-9026.6195811487614</v>
+        <v>-4.8773654270917177E-7</v>
       </c>
       <c r="D15">
-        <v>9026.6195810268273</v>
+        <v>24.278386231438958</v>
       </c>
       <c r="E15">
-        <v>24.278386231438958</v>
+        <v>23.520759136491961</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,13 +3021,13 @@
         <v>1660087.0114217978</v>
       </c>
       <c r="C16">
-        <v>-9026.6195837406503</v>
+        <v>-1.085534313460812E-5</v>
       </c>
       <c r="D16">
-        <v>9026.6195810268146</v>
+        <v>24.278386231439129</v>
       </c>
       <c r="E16">
-        <v>24.278386231439129</v>
+        <v>23.650491544520492</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,13 +3038,13 @@
         <v>1698457.9739276443</v>
       </c>
       <c r="C17">
-        <v>-9026.6195763087089</v>
+        <v>1.8872487999033183E-5</v>
       </c>
       <c r="D17">
-        <v>9026.6195810268309</v>
+        <v>24.278386231439129</v>
       </c>
       <c r="E17">
-        <v>24.278386231439129</v>
+        <v>23.590205492582356</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,13 +3055,13 @@
         <v>1775739.0228879531</v>
       </c>
       <c r="C18">
-        <v>-9026.6195824365368</v>
+        <v>-5.6383723858743906E-6</v>
       </c>
       <c r="D18">
-        <v>9026.6195810269437</v>
+        <v>24.27838623143839</v>
       </c>
       <c r="E18">
-        <v>24.27838623143839</v>
+        <v>23.340050939433695</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,13 +3072,13 @@
         <v>1829617.640313732</v>
       </c>
       <c r="C19">
-        <v>-9026.619442601952</v>
+        <v>5.5369752226397395E-4</v>
       </c>
       <c r="D19">
-        <v>9026.6195810263325</v>
+        <v>24.278386231447143</v>
       </c>
       <c r="E19">
-        <v>24.278386231447143</v>
+        <v>23.131697782502556</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3167,13 +3089,13 @@
         <v>1886055.4285365399</v>
       </c>
       <c r="C20">
-        <v>-9026.6195771542207</v>
+        <v>1.5491663361899555E-5</v>
       </c>
       <c r="D20">
-        <v>9026.6195810271365</v>
+        <v>24.278386231437423</v>
       </c>
       <c r="E20">
-        <v>24.278386231437423</v>
+        <v>22.839786693459473</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3184,13 +3106,13 @@
         <v>1935761.2494076127</v>
       </c>
       <c r="C21">
-        <v>-9026.6220419034616</v>
+        <v>-9.8433865496190265E-3</v>
       </c>
       <c r="D21">
-        <v>9026.6195810568242</v>
+        <v>24.278386231047705</v>
       </c>
       <c r="E21">
-        <v>24.278386231047705</v>
+        <v>22.462405258765216</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,13 +3123,13 @@
         <v>1961393.6873292855</v>
       </c>
       <c r="C22">
-        <v>-9026.6629774747435</v>
+        <v>-0.17358430590684293</v>
       </c>
       <c r="D22">
-        <v>9026.6195813982667</v>
+        <v>24.278386225332724</v>
       </c>
       <c r="E22">
-        <v>24.278386225332724</v>
+        <v>22.194072534044039</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,13 +3140,13 @@
         <v>1984051.2989609712</v>
       </c>
       <c r="C23">
-        <v>-9027.7187016642347</v>
+        <v>-4.3964442737706122</v>
       </c>
       <c r="D23">
-        <v>9026.619590595792</v>
+        <v>24.278386010450959</v>
       </c>
       <c r="E23">
-        <v>24.278386010450959</v>
+        <v>21.846396996870851</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3235,13 +3157,13 @@
         <v>1995727.1295512044</v>
       </c>
       <c r="C24">
-        <v>-9030.329309510993</v>
+        <v>-14.838777929522621</v>
       </c>
       <c r="D24">
-        <v>9026.6196150286123</v>
+        <v>24.278385340517957</v>
       </c>
       <c r="E24">
-        <v>24.278385340517957</v>
+        <v>21.597586957265491</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,13 +3174,13 @@
         <v>2006176.030775642</v>
       </c>
       <c r="C25">
-        <v>-9040.8585768204357</v>
+        <v>-56.955431317095645</v>
       </c>
       <c r="D25">
-        <v>9026.6197189911618</v>
+        <v>24.278380729261244</v>
       </c>
       <c r="E25">
-        <v>24.278380729261244</v>
+        <v>21.270113462716722</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,13 +3191,13 @@
         <v>2011673.8561378391</v>
       </c>
       <c r="C26">
-        <v>-9054.041540600223</v>
+        <v>-109.68680471533298</v>
       </c>
       <c r="D26">
-        <v>9026.6198394213898</v>
+        <v>24.278372203290417</v>
       </c>
       <c r="E26">
-        <v>24.278372203290417</v>
+        <v>21.03291920624082</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,13 +3208,13 @@
         <v>2016773.497299135</v>
       </c>
       <c r="C27">
-        <v>-9077.5642893930999</v>
+        <v>-203.77746471791761</v>
       </c>
       <c r="D27">
-        <v>9026.6199232136205</v>
+        <v>24.278340546952222</v>
       </c>
       <c r="E27">
-        <v>24.278340546952222</v>
+        <v>20.719201737271987</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3303,13 +3225,13 @@
         <v>2019554.6483294419</v>
       </c>
       <c r="C28">
-        <v>-9093.7453922496861</v>
+        <v>-268.50230822492449</v>
       </c>
       <c r="D28">
-        <v>9026.619815193455</v>
+        <v>24.278296823711059</v>
       </c>
       <c r="E28">
-        <v>24.278296823711059</v>
+        <v>20.493637185991133</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,13 +3242,13 @@
         <v>2022191.17676978</v>
       </c>
       <c r="C29">
-        <v>-9098.300396576371</v>
+        <v>-286.72403053325252</v>
       </c>
       <c r="D29">
-        <v>9026.6193889430579</v>
+        <v>24.278178413684941</v>
       </c>
       <c r="E29">
-        <v>24.278178413684941</v>
+        <v>20.202804504258552</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,13 +3259,13 @@
         <v>2023608.8581004227</v>
       </c>
       <c r="C30">
-        <v>-9084.4271874832921</v>
+        <v>-231.23213003804267</v>
       </c>
       <c r="D30">
-        <v>9026.6191549737814</v>
+        <v>24.278039572978059</v>
       </c>
       <c r="E30">
-        <v>24.278039572978059</v>
+        <v>19.998030499886283</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,13 +3276,13 @@
         <v>2024888.6950994746</v>
       </c>
       <c r="C31">
-        <v>-9028.047247693763</v>
+        <v>-5.7112072511663428</v>
       </c>
       <c r="D31">
-        <v>9026.6194458809714</v>
+        <v>24.277718680143209</v>
       </c>
       <c r="E31">
-        <v>24.277718680143209</v>
+        <v>19.733324119553231</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,13 +3293,13 @@
         <v>2025560.4579326545</v>
       </c>
       <c r="C32">
-        <v>-8965.745760090731</v>
+        <v>243.49623310693278</v>
       </c>
       <c r="D32">
-        <v>9026.6198183674642</v>
+        <v>24.277371706702297</v>
       </c>
       <c r="E32">
-        <v>24.277371706702297</v>
+        <v>19.541764927526572</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3388,13 +3310,13 @@
         <v>2026200.803492184</v>
       </c>
       <c r="C33">
-        <v>-8869.7549606416724</v>
+        <v>627.45901117208996</v>
       </c>
       <c r="D33">
-        <v>9026.6197134346949</v>
+        <v>24.276624700024968</v>
       </c>
       <c r="E33">
-        <v>24.276624700024968</v>
+        <v>19.281964412946422</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,13 +3327,13 @@
         <v>2026569.8374451578</v>
       </c>
       <c r="C34">
-        <v>-8810.5531199286033</v>
+        <v>864.26402380674699</v>
       </c>
       <c r="D34">
-        <v>9026.6191258802901</v>
+        <v>24.275845845624872</v>
       </c>
       <c r="E34">
-        <v>24.275845845624872</v>
+        <v>19.088626955275345</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,13 +3344,13 @@
         <v>2026960.7773126659</v>
       </c>
       <c r="C35">
-        <v>-8806.253869700995</v>
+        <v>881.46038771347958</v>
       </c>
       <c r="D35">
-        <v>9026.6189666293649</v>
+        <v>24.274224445894333</v>
       </c>
       <c r="E35">
-        <v>24.274224445894333</v>
+        <v>18.824582973049417</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,13 +3361,13 @@
         <v>2027203.0744000366</v>
       </c>
       <c r="C36">
-        <v>-8872.1226759489509</v>
+        <v>618.0000171173524</v>
       </c>
       <c r="D36">
-        <v>9026.622680228289</v>
+        <v>24.272565985905999</v>
       </c>
       <c r="E36">
-        <v>24.272565985905999</v>
+        <v>18.628922796642939</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3456,13 +3378,13 @@
         <v>2027489.8770557502</v>
       </c>
       <c r="C37">
-        <v>-9102.4895668024728</v>
+        <v>-303.4963186266541</v>
       </c>
       <c r="D37">
-        <v>9026.6154871458093</v>
+        <v>24.269178424637118</v>
       </c>
       <c r="E37">
-        <v>24.269178424637118</v>
+        <v>18.362152001676577</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3473,13 +3395,13 @@
         <v>2027695.2550332351</v>
       </c>
       <c r="C38">
-        <v>-9344.7493441176357</v>
+        <v>-1272.8798092174402</v>
       </c>
       <c r="D38">
-        <v>9026.5293918132757</v>
+        <v>24.265751031648449</v>
       </c>
       <c r="E38">
-        <v>24.265751031648449</v>
+        <v>18.163015943673031</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,13 +3412,13 @@
         <v>2028002.4180582142</v>
       </c>
       <c r="C39">
-        <v>-9693.2039160840905</v>
+        <v>-2669.0192177166246</v>
       </c>
       <c r="D39">
-        <v>9025.9491116549343</v>
+        <v>24.258822084638211</v>
       </c>
       <c r="E39">
-        <v>24.258822084638211</v>
+        <v>17.885419159997809</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,13 +3429,13 @@
         <v>2028265.2490527502</v>
       </c>
       <c r="C40">
-        <v>-9887.724885848118</v>
+        <v>-3449.4133805730671</v>
       </c>
       <c r="D40">
-        <v>9025.3715407048512</v>
+        <v>24.251852244936401</v>
       </c>
       <c r="E40">
-        <v>24.251852244936401</v>
+        <v>17.673337770898968</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,13 +3446,13 @@
         <v>2028718.2522349362</v>
       </c>
       <c r="C41">
-        <v>-9831.4364296885033</v>
+        <v>-3210.6730554476308</v>
       </c>
       <c r="D41">
-        <v>9028.7681658265956</v>
+        <v>24.237843378352068</v>
       </c>
       <c r="E41">
-        <v>24.237843378352068</v>
+        <v>17.368030338584788</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,13 +3463,13 @@
         <v>2029126.4610554383</v>
       </c>
       <c r="C42">
-        <v>-9504.7909201362181</v>
+        <v>-1860.3037004526923</v>
       </c>
       <c r="D42">
-        <v>9039.714995023045</v>
+        <v>24.223803651850062</v>
       </c>
       <c r="E42">
-        <v>24.223803651850062</v>
+        <v>17.128560739327952</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,13 +3480,13 @@
         <v>2029827.8732991118</v>
       </c>
       <c r="C43">
-        <v>-8411.8414308393876</v>
+        <v>2736.0580269733837</v>
       </c>
       <c r="D43">
-        <v>9095.8559375827335</v>
+        <v>24.195708928508509</v>
       </c>
       <c r="E43">
-        <v>24.195708928508509</v>
+        <v>16.772742495169268</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,13 +3497,13 @@
         <v>2030442.0595744224</v>
       </c>
       <c r="C44">
-        <v>-7172.3596935451415</v>
+        <v>8039.2898439060045</v>
       </c>
       <c r="D44">
-        <v>9182.1821545216426</v>
+        <v>24.16764038650723</v>
       </c>
       <c r="E44">
-        <v>24.16764038650723</v>
+        <v>16.487145709401261</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,13 +3514,13 @@
         <v>2031437.7344941017</v>
       </c>
       <c r="C45">
-        <v>-4738.9782735366189</v>
+        <v>18777.216429185457</v>
       </c>
       <c r="D45">
-        <v>9433.2823808329831</v>
+        <v>24.111698972323438</v>
       </c>
       <c r="E45">
-        <v>24.111698972323438</v>
+        <v>16.052795367566318</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,13 +3531,13 @@
         <v>2032267.2652920592</v>
       </c>
       <c r="C46">
-        <v>-2506.2051898509785</v>
+        <v>28907.32151794809</v>
       </c>
       <c r="D46">
-        <v>9733.0355693380006</v>
+        <v>24.055973860467077</v>
       </c>
       <c r="E46">
-        <v>24.055973860467077</v>
+        <v>15.698995131911943</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,13 +3548,13 @@
         <v>2032975.2578411258</v>
       </c>
       <c r="C47">
-        <v>-493.13268479678459</v>
+        <v>38277.587947934939</v>
       </c>
       <c r="D47">
-        <v>10062.529671780519</v>
+        <v>24.000463257679314</v>
       </c>
       <c r="E47">
-        <v>24.000463257679314</v>
+        <v>15.397139984515434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,13 +3565,13 @@
         <v>2034189.4959550225</v>
       </c>
       <c r="C48">
-        <v>3085.2854290670189</v>
+        <v>55377.201164444901</v>
       </c>
       <c r="D48">
-        <v>10759.014862044207</v>
+        <v>23.889917179695544</v>
       </c>
       <c r="E48">
-        <v>23.889917179695544</v>
+        <v>14.872468811149815</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,13 +3582,13 @@
         <v>2035154.3504231516</v>
       </c>
       <c r="C49">
-        <v>6046.8618761891375</v>
+        <v>70156.196949834411</v>
       </c>
       <c r="D49">
-        <v>11492.187361269464</v>
+        <v>23.780087419658173</v>
       </c>
       <c r="E49">
-        <v>23.780087419658173</v>
+        <v>14.441349366872828</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,13 +3599,13 @@
         <v>2036656.1434685434</v>
       </c>
       <c r="C50">
-        <v>10768.111863212038</v>
+        <v>94981.471623615769</v>
       </c>
       <c r="D50">
-        <v>12977.256042691904</v>
+        <v>23.56235158195642</v>
       </c>
       <c r="E50">
-        <v>23.56235158195642</v>
+        <v>13.728723196883948</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,13 +3616,13 @@
         <v>2037770.8329174654</v>
       </c>
       <c r="C51">
-        <v>14356.047883298859</v>
+        <v>115258.27293895112</v>
       </c>
       <c r="D51">
-        <v>14458.520351438921</v>
+        <v>23.346900664059945</v>
       </c>
       <c r="E51">
-        <v>23.346900664059945</v>
+        <v>13.148524313389942</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,13 +3633,13 @@
         <v>2038659.7041076657</v>
       </c>
       <c r="C52">
-        <v>17265.394950378948</v>
+        <v>132732.66826221661</v>
       </c>
       <c r="D52">
-        <v>15917.772115175205</v>
+        <v>23.133434656075394</v>
       </c>
       <c r="E52">
-        <v>23.133434656075394</v>
+        <v>12.643059726123965</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,13 +3650,13 @@
         <v>2039405.2355343481</v>
       </c>
       <c r="C53">
-        <v>19749.49271943808</v>
+        <v>148415.82751110516</v>
       </c>
       <c r="D53">
-        <v>17354.464158338211</v>
+        <v>22.921733844902462</v>
       </c>
       <c r="E53">
-        <v>22.921733844902462</v>
+        <v>12.183930085371685</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,13 +3667,13 @@
         <v>2040640.0294785916</v>
       </c>
       <c r="C54">
-        <v>24003.108865221999</v>
+        <v>176735.39151464537</v>
       </c>
       <c r="D54">
-        <v>20180.739013439339</v>
+        <v>22.502937915760583</v>
       </c>
       <c r="E54">
-        <v>22.502937915760583</v>
+        <v>11.347188377501425</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,13 +3684,13 @@
         <v>2041608.2215117509</v>
       </c>
       <c r="C55">
-        <v>27529.812246487967</v>
+        <v>201964.19784315932</v>
       </c>
       <c r="D55">
-        <v>22961.237214301862</v>
+        <v>22.089864926752966</v>
       </c>
       <c r="E55">
-        <v>22.089864926752966</v>
+        <v>10.595694119246446</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,13 +3701,13 @@
         <v>2043102.3857582887</v>
       </c>
       <c r="C56">
-        <v>33421.522257566801</v>
+        <v>247478.274380096</v>
       </c>
       <c r="D56">
-        <v>28448.046337457195</v>
+        <v>21.27874863363553</v>
       </c>
       <c r="E56">
-        <v>21.27874863363553</v>
+        <v>9.2391328119564946</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,13 +3718,13 @@
         <v>2044175.4193853247</v>
       </c>
       <c r="C57">
-        <v>38194.775833068183</v>
+        <v>288226.06643779925</v>
       </c>
       <c r="D57">
-        <v>33861.740776381637</v>
+        <v>20.486364110176567</v>
       </c>
       <c r="E57">
-        <v>20.486364110176567</v>
+        <v>8.0286936449380732</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3813,13 +3735,13 @@
         <v>1913245.3805184299</v>
       </c>
       <c r="C58">
-        <v>41256.677713486926</v>
+        <v>321202.15750809317</v>
       </c>
       <c r="D58">
-        <v>39043.861663536372</v>
+        <v>19.748818752182046</v>
       </c>
       <c r="E58">
-        <v>19.748818752182046</v>
+        <v>7.4891774261524233</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,13 +3752,13 @@
         <v>1789383.035234699</v>
       </c>
       <c r="C59">
-        <v>42962.712921001628</v>
+        <v>347449.61838323087</v>
       </c>
       <c r="D59">
-        <v>43899.691674806083</v>
+        <v>19.073757423282302</v>
       </c>
       <c r="E59">
-        <v>19.073757423282302</v>
+        <v>7.1480476869472227</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,13 +3769,13 @@
         <v>1697325.8527334318</v>
       </c>
       <c r="C60">
-        <v>43751.397167975752</v>
+        <v>368146.49828514108</v>
       </c>
       <c r="D60">
-        <v>48285.227403309524</v>
+        <v>18.480083227930095</v>
       </c>
       <c r="E60">
-        <v>18.480083227930095</v>
+        <v>6.8731982543616255</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,13 +3786,13 @@
         <v>1614564.2233231701</v>
       </c>
       <c r="C61">
-        <v>44301.720824592267</v>
+        <v>386763.22323056462</v>
       </c>
       <c r="D61">
-        <v>52389.084983048895</v>
+        <v>17.932179229725648</v>
       </c>
       <c r="E61">
-        <v>17.932179229725648</v>
+        <v>6.6336693674071512</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3881,13 +3803,13 @@
         <v>1540464.2016006103</v>
       </c>
       <c r="C62">
-        <v>44666.895178592102</v>
+        <v>403645.05298853182</v>
       </c>
       <c r="D62">
-        <v>56244.368068540854</v>
+        <v>17.423035691497375</v>
       </c>
       <c r="E62">
-        <v>17.423035691497375</v>
+        <v>6.4197681078668438</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3898,13 +3820,13 @@
         <v>1509219.2039977489</v>
       </c>
       <c r="C63">
-        <v>44768.330476822746</v>
+        <v>410867.33211086906</v>
       </c>
       <c r="D63">
-        <v>57948.502550894518</v>
+        <v>17.200879498254039</v>
       </c>
       <c r="E63">
-        <v>17.200879498254039</v>
+        <v>6.3296055178429356</v>
       </c>
     </row>
   </sheetData>
@@ -3912,11 +3834,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3927,19 +3851,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3950,13 +3874,13 @@
         <v>289172.96938240982</v>
       </c>
       <c r="C2">
-        <v>-12607.87164693277</v>
+        <v>-6.2466569943353534E-6</v>
       </c>
       <c r="D2">
-        <v>12607.871645371106</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E2">
-        <v>24.766167775621739</v>
+        <v>26.199039050069189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,13 +3891,13 @@
         <v>445094.95986667951</v>
       </c>
       <c r="C3">
-        <v>-12607.87164693277</v>
+        <v>-6.2466569943353534E-6</v>
       </c>
       <c r="D3">
-        <v>12607.871645371106</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E3">
-        <v>24.766167775621739</v>
+        <v>24.766969650625583</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,13 +3908,13 @@
         <v>500142.64027664869</v>
       </c>
       <c r="C4">
-        <v>-12607.871645330406</v>
+        <v>1.6301055438816547E-7</v>
       </c>
       <c r="D4">
-        <v>12607.871645371159</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E4">
-        <v>24.766167775621739</v>
+        <v>23.560518367581039</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4001,13 +3925,13 @@
         <v>629883.10593625403</v>
       </c>
       <c r="C5">
-        <v>-12607.87164530615</v>
+        <v>2.6018096832558513E-7</v>
       </c>
       <c r="D5">
-        <v>12607.871645371195</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E5">
-        <v>24.766167775621739</v>
+        <v>22.573594078281531</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,13 +3942,13 @@
         <v>764776.70532572689</v>
       </c>
       <c r="C6">
-        <v>-12607.871645367875</v>
+        <v>1.3271346688270569E-8</v>
       </c>
       <c r="D6">
-        <v>12607.871645371193</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E6">
-        <v>24.766167775621739</v>
+        <v>22.395875220055984</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4035,13 +3959,13 @@
         <v>948766.76621059084</v>
       </c>
       <c r="C7">
-        <v>-12607.871645407384</v>
+        <v>-1.4488614397123456E-7</v>
       </c>
       <c r="D7">
-        <v>12607.871645371162</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E7">
-        <v>24.766167775621739</v>
+        <v>22.376157234865047</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4052,13 +3976,13 @@
         <v>1095559.6680827979</v>
       </c>
       <c r="C8">
-        <v>-12607.871645391118</v>
+        <v>-7.9831806942820549E-8</v>
       </c>
       <c r="D8">
-        <v>12607.87164537116</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E8">
-        <v>24.766167775621739</v>
+        <v>22.283515640670657</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,13 +3993,13 @@
         <v>1278041.8734554758</v>
       </c>
       <c r="C9">
-        <v>-12607.871645379162</v>
+        <v>-3.1934177968651056E-8</v>
       </c>
       <c r="D9">
-        <v>12607.871645371179</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E9">
-        <v>24.766167775621739</v>
+        <v>22.319914339451941</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,13 +4010,13 @@
         <v>1487589.2240925219</v>
       </c>
       <c r="C10">
-        <v>-12607.871645388905</v>
+        <v>-7.0933310780674219E-8</v>
       </c>
       <c r="D10">
-        <v>12607.871645371171</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E10">
-        <v>24.766167775621739</v>
+        <v>22.428508939224571</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,13 +4027,13 @@
         <v>1613607.3843535157</v>
       </c>
       <c r="C11">
-        <v>-12607.871645386133</v>
+        <v>-5.9830199461430311E-8</v>
       </c>
       <c r="D11">
-        <v>12607.871645371175</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E11">
-        <v>24.766167775621739</v>
+        <v>22.576195885213792</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,13 +4044,13 @@
         <v>1720515.7550626919</v>
       </c>
       <c r="C12">
-        <v>-12607.871645392064</v>
+        <v>-8.357164915651083E-8</v>
       </c>
       <c r="D12">
-        <v>12607.871645371171</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E12">
-        <v>24.766167775621739</v>
+        <v>22.879767470059335</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4137,13 +4061,13 @@
         <v>1758849.0204854992</v>
       </c>
       <c r="C13">
-        <v>-12607.871645444313</v>
+        <v>-2.9238435672596097E-7</v>
       </c>
       <c r="D13">
-        <v>12607.871645371217</v>
+        <v>24.766167775621739</v>
       </c>
       <c r="E13">
-        <v>24.766167775621739</v>
+        <v>23.167576605812883</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,13 +4078,13 @@
         <v>1749900.6168080131</v>
       </c>
       <c r="C14">
-        <v>-12607.871646496933</v>
+        <v>-4.5027263695374131E-6</v>
       </c>
       <c r="D14">
-        <v>12607.871645371251</v>
+        <v>24.766167775621682</v>
       </c>
       <c r="E14">
-        <v>24.766167775621682</v>
+        <v>23.597857987518353</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,13 +4095,13 @@
         <v>1728714.8763753888</v>
       </c>
       <c r="C15">
-        <v>-12607.871644684441</v>
+        <v>2.7442656573839486E-6</v>
       </c>
       <c r="D15">
-        <v>12607.871645370507</v>
+        <v>24.766167775621795</v>
       </c>
       <c r="E15">
-        <v>24.766167775621795</v>
+        <v>23.851600977941928</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4188,13 +4112,13 @@
         <v>1729070.041462088</v>
       </c>
       <c r="C16">
-        <v>-12607.871634930656</v>
+        <v>4.1761471948120743E-5</v>
       </c>
       <c r="D16">
-        <v>12607.871645371024</v>
+        <v>24.766167775621795</v>
       </c>
       <c r="E16">
-        <v>24.766167775621795</v>
+        <v>23.939593830276351</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,13 +4129,13 @@
         <v>1756415.2530677652</v>
       </c>
       <c r="C17">
-        <v>-12607.871685044371</v>
+        <v>-1.5867582987993956E-4</v>
       </c>
       <c r="D17">
-        <v>12607.871645375413</v>
+        <v>24.766167775620602</v>
       </c>
       <c r="E17">
-        <v>24.766167775620602</v>
+        <v>23.861795707623173</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4222,13 +4146,13 @@
         <v>1814809.6640814762</v>
       </c>
       <c r="C18">
-        <v>-12607.871621989001</v>
+        <v>9.3519760412164032E-5</v>
       </c>
       <c r="D18">
-        <v>12607.871645368941</v>
+        <v>24.766167775622023</v>
       </c>
       <c r="E18">
-        <v>24.766167775622023</v>
+        <v>23.657316075458709</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4239,13 +4163,13 @@
         <v>1881709.6857289763</v>
       </c>
       <c r="C19">
-        <v>-12607.87147630509</v>
+        <v>6.7626179225044325E-4</v>
       </c>
       <c r="D19">
-        <v>12607.871645370538</v>
+        <v>24.766167775623614</v>
       </c>
       <c r="E19">
-        <v>24.766167775623614</v>
+        <v>23.375357198012125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4256,13 +4180,13 @@
         <v>1938125.1061814725</v>
       </c>
       <c r="C20">
-        <v>-12607.873806545011</v>
+        <v>-8.6443839754792862E-3</v>
       </c>
       <c r="D20">
-        <v>12607.871645449017</v>
+        <v>24.76616777535628</v>
       </c>
       <c r="E20">
-        <v>24.76616777535628</v>
+        <v>23.036277631790597</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,13 +4197,13 @@
         <v>1965937.9973866458</v>
       </c>
       <c r="C21">
-        <v>-12607.916356803518</v>
+        <v>-0.17884024321392644</v>
       </c>
       <c r="D21">
-        <v>12607.871646742715</v>
+        <v>24.766167771838582</v>
       </c>
       <c r="E21">
-        <v>24.766167771838582</v>
+        <v>22.802292610985944</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,13 +4214,13 @@
         <v>1989871.7652014468</v>
       </c>
       <c r="C22">
-        <v>-12609.108752008246</v>
+        <v>-4.9483134241454536</v>
       </c>
       <c r="D22">
-        <v>12607.871673652209</v>
+        <v>24.766167637890362</v>
       </c>
       <c r="E22">
-        <v>24.766167637890362</v>
+        <v>22.503796962092736</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,13 +4231,13 @@
         <v>2002032.6143686662</v>
       </c>
       <c r="C23">
-        <v>-12612.05001113465</v>
+        <v>-16.713118112995289</v>
       </c>
       <c r="D23">
-        <v>12607.871731606401</v>
+        <v>24.766167216424606</v>
       </c>
       <c r="E23">
-        <v>24.766167216424606</v>
+        <v>22.292073921964743</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4324,13 +4248,13 @@
         <v>2012812.6115719331</v>
       </c>
       <c r="C24">
-        <v>-12623.252681398233</v>
+        <v>-61.523205531717394</v>
       </c>
       <c r="D24">
-        <v>12607.871880015304</v>
+        <v>24.766164282378327</v>
       </c>
       <c r="E24">
-        <v>24.766164282378327</v>
+        <v>22.015478765019282</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,13 +4265,13 @@
         <v>2018457.5896194582</v>
       </c>
       <c r="C25">
-        <v>-12636.281126555203</v>
+        <v>-113.6366440403508</v>
       </c>
       <c r="D25">
-        <v>12607.871965545115</v>
+        <v>24.766158836848604</v>
       </c>
       <c r="E25">
-        <v>24.766158836848604</v>
+        <v>21.81604278766838</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,13 +4282,13 @@
         <v>2023691.2488741935</v>
       </c>
       <c r="C26">
-        <v>-12654.506160127361</v>
+        <v>-186.53775504769874</v>
       </c>
       <c r="D26">
-        <v>12607.871721365436</v>
+        <v>24.766138587383182</v>
       </c>
       <c r="E26">
-        <v>24.766138587383182</v>
+        <v>21.553511241982562</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,13 +4299,13 @@
         <v>2026553.957304165</v>
       </c>
       <c r="C27">
-        <v>-12661.40068182888</v>
+        <v>-214.11783335403015</v>
       </c>
       <c r="D27">
-        <v>12607.871223490372</v>
+        <v>24.766110644222238</v>
       </c>
       <c r="E27">
-        <v>24.766110644222238</v>
+        <v>21.365639611916265</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,13 +4316,13 @@
         <v>2029281.0093179815</v>
       </c>
       <c r="C28">
-        <v>-12641.959487254122</v>
+        <v>-136.35587461485557</v>
       </c>
       <c r="D28">
-        <v>12607.870518600408</v>
+        <v>24.766035296222583</v>
       </c>
       <c r="E28">
-        <v>24.766035296222583</v>
+        <v>21.125674707732685</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,13 +4333,13 @@
         <v>2030751.2898006153</v>
       </c>
       <c r="C29">
-        <v>-12604.728937882959</v>
+        <v>12.566429921833333</v>
       </c>
       <c r="D29">
-        <v>12607.870545363417</v>
+        <v>24.765947330464826</v>
       </c>
       <c r="E29">
-        <v>24.765947330464826</v>
+        <v>20.958447619411118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,13 +4350,13 @@
         <v>2032077.2555232141</v>
       </c>
       <c r="C30">
-        <v>-12517.596594027676</v>
+        <v>361.10143413579499</v>
       </c>
       <c r="D30">
-        <v>12607.871952561625</v>
+        <v>24.765745456415459</v>
       </c>
       <c r="E30">
-        <v>24.765745456415459</v>
+        <v>20.744825397521595</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,13 +4367,13 @@
         <v>2032772.3475138219</v>
       </c>
       <c r="C31">
-        <v>-12440.252360376036</v>
+        <v>670.4828707298584</v>
       </c>
       <c r="D31">
-        <v>12607.873078058501</v>
+        <v>24.765528257873825</v>
       </c>
       <c r="E31">
-        <v>24.765528257873825</v>
+        <v>20.591030351032828</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4460,13 +4384,13 @@
         <v>2033440.876910697</v>
       </c>
       <c r="C32">
-        <v>-12355.588446056716</v>
+        <v>1009.1368703352928</v>
       </c>
       <c r="D32">
-        <v>12607.872663640539</v>
+        <v>24.765063074136208</v>
       </c>
       <c r="E32">
-        <v>24.765063074136208</v>
+        <v>20.381819285826964</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,13 +4401,13 @@
         <v>2033834.1088334492</v>
       </c>
       <c r="C33">
-        <v>-12330.594538340913</v>
+        <v>1109.1065239969612</v>
       </c>
       <c r="D33">
-        <v>12607.871169340153</v>
+        <v>24.764579346585492</v>
       </c>
       <c r="E33">
-        <v>24.764579346585492</v>
+        <v>20.225154082431231</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,13 +4418,13 @@
         <v>2034264.3609625197</v>
       </c>
       <c r="C34">
-        <v>-12420.886826213973</v>
+        <v>747.93535178799357</v>
       </c>
       <c r="D34">
-        <v>12607.870664160972</v>
+        <v>24.763574155027584</v>
       </c>
       <c r="E34">
-        <v>24.763574155027584</v>
+        <v>20.009511282866299</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4511,13 +4435,13 @@
         <v>2034538.6245484501</v>
       </c>
       <c r="C35">
-        <v>-12580.28501397121</v>
+        <v>110.36228144496999</v>
       </c>
       <c r="D35">
-        <v>12607.875584332452</v>
+        <v>24.762546621429465</v>
       </c>
       <c r="E35">
-        <v>24.762546621429465</v>
+        <v>19.849049346398772</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4528,13 +4452,13 @@
         <v>2034869.7206531581</v>
       </c>
       <c r="C36">
-        <v>-12945.503683367697</v>
+        <v>-1350.5166252474519</v>
       </c>
       <c r="D36">
-        <v>12607.874527055834</v>
+        <v>24.760448213531049</v>
       </c>
       <c r="E36">
-        <v>24.760448213531049</v>
+        <v>19.630051026276931</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,13 +4469,13 @@
         <v>2035107.5782803101</v>
       </c>
       <c r="C37">
-        <v>-13273.673988733859</v>
+        <v>-2663.4903741917369</v>
       </c>
       <c r="D37">
-        <v>12607.801395185925</v>
+        <v>24.758325185838885</v>
       </c>
       <c r="E37">
-        <v>24.758325185838885</v>
+        <v>19.466768613358056</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,13 +4486,13 @@
         <v>2035458.6185098025</v>
       </c>
       <c r="C38">
-        <v>-13675.546888338511</v>
+        <v>-4273.0230718557141</v>
       </c>
       <c r="D38">
-        <v>12607.291120374583</v>
+        <v>24.754033442683181</v>
       </c>
       <c r="E38">
-        <v>24.754033442683181</v>
+        <v>19.239810133042454</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,13 +4503,13 @@
         <v>2035754.1099029896</v>
       </c>
       <c r="C39">
-        <v>-13865.405136579539</v>
+        <v>-5034.4342746858165</v>
       </c>
       <c r="D39">
-        <v>12606.796567908084</v>
+        <v>24.749716810983841</v>
       </c>
       <c r="E39">
-        <v>24.749716810983841</v>
+        <v>19.066893725543991</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,13 +4520,13 @@
         <v>2036252.6941348251</v>
       </c>
       <c r="C40">
-        <v>-13738.514350102883</v>
+        <v>-4514.6314702210002</v>
       </c>
       <c r="D40">
-        <v>12609.856482547633</v>
+        <v>24.741042591387213</v>
       </c>
       <c r="E40">
-        <v>24.741042591387213</v>
+        <v>18.81908211076086</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4613,13 +4537,13 @@
         <v>2036695.5775419746</v>
       </c>
       <c r="C41">
-        <v>-13340.274090516483</v>
+        <v>-2883.1908619360038</v>
       </c>
       <c r="D41">
-        <v>12619.476375032482</v>
+        <v>24.732350799239271</v>
       </c>
       <c r="E41">
-        <v>24.732350799239271</v>
+        <v>18.625605097603113</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,13 +4554,13 @@
         <v>2037446.2589555492</v>
       </c>
       <c r="C42">
-        <v>-12165.665590027838</v>
+        <v>2007.8245795745461</v>
       </c>
       <c r="D42">
-        <v>12667.621734921475</v>
+        <v>24.714960698644177</v>
       </c>
       <c r="E42">
-        <v>24.714960698644177</v>
+        <v>18.340288007182949</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4647,13 +4571,13 @@
         <v>2038098.5394152314</v>
       </c>
       <c r="C43">
-        <v>-10896.802689660701</v>
+        <v>7375.7265536650229</v>
       </c>
       <c r="D43">
-        <v>12740.734328076956</v>
+        <v>24.697587493760352</v>
       </c>
       <c r="E43">
-        <v>24.697587493760352</v>
+        <v>18.112867487881545</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4664,13 +4588,13 @@
         <v>2039149.8593901061</v>
       </c>
       <c r="C44">
-        <v>-8508.6490909507556</v>
+        <v>17766.640198255285</v>
       </c>
       <c r="D44">
-        <v>12950.309140514577</v>
+        <v>24.662956063262016</v>
       </c>
       <c r="E44">
-        <v>24.662956063262016</v>
+        <v>17.770443140239195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,13 +4605,13 @@
         <v>2040023.832979341</v>
       </c>
       <c r="C45">
-        <v>-6366.0523941354404</v>
+        <v>27329.246094653427</v>
       </c>
       <c r="D45">
-        <v>13198.363917798797</v>
+        <v>24.62844829110179</v>
       </c>
       <c r="E45">
-        <v>24.62844829110179</v>
+        <v>17.493946427712388</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4698,13 +4622,13 @@
         <v>2040769.6916233888</v>
       </c>
       <c r="C46">
-        <v>-4461.4687475051869</v>
+        <v>36031.463252776448</v>
       </c>
       <c r="D46">
-        <v>13469.334560699299</v>
+        <v>24.594061182223641</v>
       </c>
       <c r="E46">
-        <v>24.594061182223641</v>
+        <v>17.259829472972797</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,13 +4639,13 @@
         <v>2041948.3812401653</v>
       </c>
       <c r="C47">
-        <v>-1358.6100062292264</v>
+        <v>50757.643020742442</v>
       </c>
       <c r="D47">
-        <v>14048.020761414837</v>
+        <v>24.52571554971621</v>
       </c>
       <c r="E47">
-        <v>24.52571554971621</v>
+        <v>16.885798697868722</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4732,13 +4656,13 @@
         <v>2042918.3911078938</v>
       </c>
       <c r="C48">
-        <v>1231.534647832324</v>
+        <v>63484.3404811402</v>
       </c>
       <c r="D48">
-        <v>14639.550472452725</v>
+        <v>24.457753266662905</v>
       </c>
       <c r="E48">
-        <v>24.457753266662905</v>
+        <v>16.571516217968167</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4749,13 +4673,13 @@
         <v>2044396.9626091027</v>
       </c>
       <c r="C49">
-        <v>5188.6573092833059</v>
+        <v>84023.000429975567</v>
       </c>
       <c r="D49">
-        <v>15817.092798210586</v>
+        <v>24.323089442355069</v>
       </c>
       <c r="E49">
-        <v>24.323089442355069</v>
+        <v>16.069841965634907</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4766,13 +4690,13 @@
         <v>2045586.0614727126</v>
       </c>
       <c r="C50">
-        <v>8366.762361047935</v>
+        <v>101362.19836694832</v>
       </c>
       <c r="D50">
-        <v>16973.787230689144</v>
+        <v>24.189513774855527</v>
       </c>
       <c r="E50">
-        <v>24.189513774855527</v>
+        <v>15.645817277368337</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,13 +4707,13 @@
         <v>2046580.9850568271</v>
       </c>
       <c r="C51">
-        <v>11022.218967641116</v>
+        <v>116518.058434729</v>
       </c>
       <c r="D51">
-        <v>18107.295641041135</v>
+        <v>24.056898465162192</v>
       </c>
       <c r="E51">
-        <v>24.056898465162192</v>
+        <v>15.272782707932322</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4800,13 +4724,13 @@
         <v>2048119.7637637588</v>
       </c>
       <c r="C52">
-        <v>15164.277843919283</v>
+        <v>141855.1641191981</v>
       </c>
       <c r="D52">
-        <v>20299.513185880242</v>
+        <v>23.794895160823614</v>
       </c>
       <c r="E52">
-        <v>23.794895160823614</v>
+        <v>14.641537560411734</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4817,13 +4741,13 @@
         <v>2049361.8528979863</v>
       </c>
       <c r="C53">
-        <v>18575.456508018771</v>
+        <v>164042.12152139272</v>
       </c>
       <c r="D53">
-        <v>22435.073872329413</v>
+        <v>23.535763386061319</v>
       </c>
       <c r="E53">
-        <v>23.535763386061319</v>
+        <v>14.083831174186514</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4834,13 +4758,13 @@
         <v>2050396.8972148551</v>
       </c>
       <c r="C54">
-        <v>21498.238549020411</v>
+        <v>184108.28495437442</v>
       </c>
       <c r="D54">
-        <v>24528.832689573195</v>
+        <v>23.279246024857741</v>
       </c>
       <c r="E54">
-        <v>23.279246024857741</v>
+        <v>13.57644640881449</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,13 +4775,13 @@
         <v>2052123.6682695099</v>
       </c>
       <c r="C55">
-        <v>26561.990746765408</v>
+        <v>220751.42897898832</v>
       </c>
       <c r="D55">
-        <v>28625.866497981668</v>
+        <v>22.774532876940611</v>
       </c>
       <c r="E55">
-        <v>22.774532876940611</v>
+        <v>12.64720232615133</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4868,13 +4792,13 @@
         <v>2053443.8054619539</v>
       </c>
       <c r="C56">
-        <v>30723.964395074796</v>
+        <v>253453.51293363853</v>
       </c>
       <c r="D56">
-        <v>32639.413838334833</v>
+        <v>22.278229214422765</v>
       </c>
       <c r="E56">
-        <v>22.278229214422765</v>
+        <v>11.816477197420227</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4885,13 +4809,13 @@
         <v>2054481.4686391908</v>
       </c>
       <c r="C57">
-        <v>34276.910698349646</v>
+        <v>283486.05402078503</v>
       </c>
       <c r="D57">
-        <v>36594.602806846604</v>
+        <v>21.79004453028648</v>
       </c>
       <c r="E57">
-        <v>21.79004453028648</v>
+        <v>11.055902004198288</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4902,13 +4826,13 @@
         <v>2055325.9204239221</v>
       </c>
       <c r="C58">
-        <v>37413.086725238238</v>
+        <v>311683.28359765105</v>
       </c>
       <c r="D58">
-        <v>40507.734174174519</v>
+        <v>21.3095716080432</v>
       </c>
       <c r="E58">
-        <v>21.3095716080432</v>
+        <v>10.345823487451014</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,13 +4843,13 @@
         <v>2056033.3014715188</v>
       </c>
       <c r="C59">
-        <v>40247.086964179995</v>
+        <v>338536.28702761675</v>
       </c>
       <c r="D59">
-        <v>44386.984792724186</v>
+        <v>20.836454294626378</v>
       </c>
       <c r="E59">
-        <v>20.836454294626378</v>
+        <v>9.6741854519725621</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,13 +4860,13 @@
         <v>2056638.9196810513</v>
       </c>
       <c r="C60">
-        <v>42848.026344564554</v>
+        <v>364334.20720695716</v>
       </c>
       <c r="D60">
-        <v>48235.525457174735</v>
+        <v>20.370400838612113</v>
       </c>
       <c r="E60">
-        <v>20.370400838612113</v>
+        <v>9.0333979849640968</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,13 +4877,13 @@
         <v>2057165.953449103</v>
       </c>
       <c r="C61">
-        <v>45260.716602588269</v>
+        <v>389258.09485920041</v>
       </c>
       <c r="D61">
-        <v>52053.807112211842</v>
+        <v>19.911169639865761</v>
       </c>
       <c r="E61">
-        <v>19.911169639865761</v>
+        <v>8.4183572292934628</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4970,13 +4894,13 @@
         <v>2056282.8337722656</v>
       </c>
       <c r="C62">
-        <v>45653.783571647618</v>
+        <v>393444.65901047911</v>
       </c>
       <c r="D62">
-        <v>52707.381180972152</v>
+        <v>19.832860177297562</v>
       </c>
       <c r="E62">
-        <v>19.832860177297562</v>
+        <v>8.3171126987419939</v>
       </c>
     </row>
   </sheetData>
